--- a/data/ServicosPublicos.xlsx
+++ b/data/ServicosPublicos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtxcy-my.sharepoint.com/personal/opusvix_vtxcy_onmicrosoft_com/Documents/ProjetosBI/ServicosPublicos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtxcy-my.sharepoint.com/personal/opusvix_vtxcy_onmicrosoft_com/Documents/ProjetosBI/ServicosPublicos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{25BDD0FE-B4E1-469E-87EB-52E0AB5C72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7428104B-3299-40D7-B114-DAE55B82A3A3}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{25BDD0FE-B4E1-469E-87EB-52E0AB5C72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5218720A-D139-4A81-B790-2494AB941ED9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1845" windowWidth="29010" windowHeight="13080" xr2:uid="{7C0C2ADD-CC0E-4506-9019-11C0CD6EC995}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C0C2ADD-CC0E-4506-9019-11C0CD6EC995}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
   <si>
     <t>CESAN</t>
   </si>
@@ -920,8 +920,8 @@
   <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P204" sqref="P204"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9171,7 +9171,9 @@
       <c r="F206" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G206" s="33"/>
+      <c r="G206" s="33">
+        <v>0</v>
+      </c>
       <c r="H206" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
         <v>0</v>
@@ -9186,19 +9188,46 @@
       <c r="P206" s="36"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A207" s="23"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="25"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="29"/>
-      <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
-      <c r="K207" s="9"/>
-      <c r="L207" s="26"/>
-      <c r="M207" s="26"/>
+      <c r="A207" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C207" s="9">
+        <v>2</v>
+      </c>
+      <c r="D207" s="9">
+        <v>29</v>
+      </c>
+      <c r="E207" s="9">
+        <v>17</v>
+      </c>
+      <c r="F207" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G207" s="33">
+        <v>119.33</v>
+      </c>
+      <c r="H207" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>7.0194117647058825</v>
+      </c>
+      <c r="I207" s="9">
+        <v>908</v>
+      </c>
+      <c r="J207" s="9">
+        <v>925</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L207" s="26">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="M207" s="26">
+        <v>52.98</v>
+      </c>
       <c r="N207" s="32"/>
       <c r="O207" s="9"/>
       <c r="P207" s="32"/>

--- a/data/ServicosPublicos.xlsx
+++ b/data/ServicosPublicos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtxcy-my.sharepoint.com/personal/opusvix_vtxcy_onmicrosoft_com/Documents/ProjetosBI/ServicosPublicos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{25BDD0FE-B4E1-469E-87EB-52E0AB5C72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5218720A-D139-4A81-B790-2494AB941ED9}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{25BDD0FE-B4E1-469E-87EB-52E0AB5C72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753800B0-41E0-402F-8724-DA377EEF6F77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C0C2ADD-CC0E-4506-9019-11C0CD6EC995}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{7C0C2ADD-CC0E-4506-9019-11C0CD6EC995}"/>
   </bookViews>
   <sheets>
     <sheet name="Servicos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="38">
   <si>
     <t>CESAN</t>
   </si>
@@ -292,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,6 +407,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -576,6 +588,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A67C061-D567-4B01-A4A7-B053EA750DCD}" name="tServicos" displayName="tServicos" ref="A1:P209" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16" headerRowCellStyle="Vírgula">
   <autoFilter ref="A1:P209" xr:uid="{8A67C061-D567-4B01-A4A7-B053EA750DCD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P209">
+    <sortCondition ref="B2:B209"/>
+    <sortCondition ref="C2:C209"/>
+  </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{A521CC71-35D8-458E-BAC0-40882A9189CF}" name="servico" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{DC297F54-5252-47E5-AC72-6BC2C01BA9C6}" name="ano" dataDxfId="14"/>
@@ -920,8 +936,8 @@
   <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,27 +1045,27 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2018</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="19">
-        <v>18.600000000000001</v>
+        <v>231</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="21">
-        <v>103.78</v>
+        <v>189.66</v>
       </c>
       <c r="H3" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.5795698924731179</v>
+        <v>0.82103896103896101</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1068,21 +1084,21 @@
         <v>2018</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="19">
-        <v>20</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="21">
-        <v>111.6</v>
+        <v>103.78</v>
       </c>
       <c r="H4" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.58</v>
+        <v>5.5795698924731179</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1095,27 +1111,27 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>2018</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="19">
-        <v>19.3</v>
+        <v>258</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="21">
-        <v>107.78</v>
+        <v>207.29</v>
       </c>
       <c r="H5" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.5844559585492224</v>
+        <v>0.80344961240310075</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1134,17 +1150,17 @@
         <v>2018</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="21">
-        <v>122.76</v>
+        <v>111.6</v>
       </c>
       <c r="H6" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
@@ -1161,27 +1177,27 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <v>2018</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="19">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="21">
-        <v>111.6</v>
+        <v>203.74</v>
       </c>
       <c r="H7" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.58</v>
+        <v>0.77174242424242423</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1200,21 +1216,21 @@
         <v>2018</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="19">
-        <v>18.600000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="21">
-        <v>103.78</v>
+        <v>107.78</v>
       </c>
       <c r="H8" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.5795698924731179</v>
+        <v>5.5844559585492224</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1227,27 +1243,27 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>2018</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="19">
-        <v>21.3</v>
+        <v>250</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="21">
-        <v>118.94</v>
+        <v>191.09</v>
       </c>
       <c r="H9" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.5840375586854458</v>
+        <v>0.76436000000000004</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1266,21 +1282,21 @@
         <v>2018</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="19">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="21">
-        <v>131.07</v>
+        <v>122.76</v>
       </c>
       <c r="H10" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.7995575221238935</v>
+        <v>5.58</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1293,27 +1309,27 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>2018</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="19">
-        <v>19.3</v>
+        <v>220</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="21">
-        <v>112.02</v>
+        <v>182.01</v>
       </c>
       <c r="H11" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.8041450777202073</v>
+        <v>0.82731818181818173</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1332,7 +1348,7 @@
         <v>2018</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="19">
@@ -1342,11 +1358,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="21">
-        <v>116</v>
+        <v>111.6</v>
       </c>
       <c r="H12" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.8</v>
+        <v>5.58</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1359,27 +1375,27 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>2018</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="19">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="21">
-        <v>74.739999999999995</v>
+        <v>185.68</v>
       </c>
       <c r="H13" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.2283333333333326</v>
+        <v>0.91019607843137262</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1395,24 +1411,24 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="19">
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="21">
-        <v>127.54</v>
+        <v>103.78</v>
       </c>
       <c r="H14" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.7126315789473692</v>
+        <v>5.5795698924731179</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1425,27 +1441,27 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="19">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="21">
-        <v>106.42</v>
+        <v>169.66</v>
       </c>
       <c r="H15" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.6512500000000001</v>
+        <v>0.88364583333333335</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1461,24 +1477,24 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="19">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="21">
-        <v>127.6</v>
+        <v>118.94</v>
       </c>
       <c r="H16" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.8</v>
+        <v>5.5840375586854458</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1491,27 +1507,27 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="19">
-        <v>18.600000000000001</v>
+        <v>202</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="21">
-        <v>107.87</v>
+        <v>190.26</v>
       </c>
       <c r="H17" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>5.7994623655913973</v>
+        <v>0.94188118811881183</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1527,24 +1543,24 @@
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="19">
-        <v>15</v>
+        <v>22.6</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="21">
-        <v>94.79</v>
+        <v>131.07</v>
       </c>
       <c r="H18" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.3193333333333337</v>
+        <v>5.7995575221238935</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1557,27 +1573,27 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="19">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="21">
-        <v>85.2</v>
+        <v>186.55</v>
       </c>
       <c r="H19" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.0857142857142863</v>
+        <v>0.99228723404255326</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1593,24 +1609,24 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="19">
-        <v>16</v>
+        <v>19.3</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="21">
-        <v>100.89</v>
+        <v>112.02</v>
       </c>
       <c r="H20" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.305625</v>
+        <v>5.8041450777202073</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1623,27 +1639,27 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="19">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="21">
-        <v>89.4</v>
+        <v>194.89</v>
       </c>
       <c r="H21" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.3857142857142861</v>
+        <v>1.0097927461139895</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1659,24 +1675,24 @@
         <v>0</v>
       </c>
       <c r="B22" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C22" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="21">
-        <v>96.55</v>
+        <v>116</v>
       </c>
       <c r="H22" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.4366666666666665</v>
+        <v>5.8</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1689,27 +1705,27 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C23" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="19">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="21">
-        <v>103.04</v>
+        <v>208</v>
       </c>
       <c r="H23" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.44</v>
+        <v>0.96744186046511627</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1725,24 +1741,24 @@
         <v>0</v>
       </c>
       <c r="B24" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C24" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="19">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="21">
-        <v>121.6</v>
+        <v>74.739999999999995</v>
       </c>
       <c r="H24" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.08</v>
+        <v>6.2283333333333326</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1755,27 +1771,27 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="19">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="21">
-        <v>99.49</v>
+        <v>189.17</v>
       </c>
       <c r="H25" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.6326666666666663</v>
+        <v>0.90511961722488032</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1791,24 +1807,24 @@
         <v>0</v>
       </c>
       <c r="B26" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="19">
-        <v>22.6</v>
+        <v>19</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="21">
-        <v>137.4</v>
+        <v>127.54</v>
       </c>
       <c r="H26" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.0796460176991145</v>
+        <v>6.7126315789473692</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1821,27 +1837,27 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="19">
-        <v>19.3</v>
+        <v>234</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="21">
-        <v>117.43</v>
+        <v>203.08</v>
       </c>
       <c r="H27" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.0844559585492233</v>
+        <v>0.86786324786324787</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1857,24 +1873,24 @@
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="21">
-        <v>118.09</v>
+        <v>106.42</v>
       </c>
       <c r="H28" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.946470588235294</v>
+        <v>6.6512500000000001</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1887,27 +1903,27 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="19">
-        <v>19.3</v>
+        <v>241</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="21">
-        <v>117.43</v>
+        <v>224.04</v>
       </c>
       <c r="H29" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.0844559585492233</v>
+        <v>0.92962655601659749</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1923,24 +1939,24 @@
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="19">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="21">
-        <v>96.21</v>
+        <v>127.6</v>
       </c>
       <c r="H30" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.4139999999999997</v>
+        <v>5.8</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1953,27 +1969,27 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C31" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="19">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="21">
-        <v>121.6</v>
+        <v>279.91000000000003</v>
       </c>
       <c r="H31" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.1529411764705877</v>
+        <v>0.92685430463576168</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1989,24 +2005,24 @@
         <v>0</v>
       </c>
       <c r="B32" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C32" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="19">
-        <v>20</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="21">
-        <v>133.76</v>
+        <v>107.87</v>
       </c>
       <c r="H32" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.6879999999999997</v>
+        <v>5.7994623655913973</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2022,24 +2038,24 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="19">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="21">
-        <v>189.66</v>
+        <v>212</v>
       </c>
       <c r="H33" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.82103896103896101</v>
+        <v>0.89451476793248941</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2052,27 +2068,27 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="19">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34" s="21">
-        <v>207.29</v>
+        <v>94.79</v>
       </c>
       <c r="H34" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.80344961240310075</v>
+        <v>6.3193333333333337</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2088,24 +2104,24 @@
         <v>2</v>
       </c>
       <c r="B35" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="19">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="21">
-        <v>203.74</v>
+        <v>223.11</v>
       </c>
       <c r="H35" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.77174242424242423</v>
+        <v>0.89244000000000001</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2118,27 +2134,27 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="19">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="21">
-        <v>191.09</v>
+        <v>85.2</v>
       </c>
       <c r="H36" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.76436000000000004</v>
+        <v>6.0857142857142863</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2154,24 +2170,24 @@
         <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="19">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="21">
-        <v>182.01</v>
+        <v>200.79</v>
       </c>
       <c r="H37" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.82731818181818173</v>
+        <v>0.93390697674418599</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2184,27 +2200,27 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C38" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="19">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="21">
-        <v>185.68</v>
+        <v>100.89</v>
       </c>
       <c r="H38" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.91019607843137262</v>
+        <v>6.305625</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2220,24 +2236,24 @@
         <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C39" s="1">
         <v>7</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="19">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G39" s="21">
-        <v>169.66</v>
+        <v>210.92</v>
       </c>
       <c r="H39" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.88364583333333335</v>
+        <v>0.93742222222222216</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2250,27 +2266,27 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="19">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" s="21">
-        <v>190.26</v>
+        <v>89.4</v>
       </c>
       <c r="H40" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.94188118811881183</v>
+        <v>6.3857142857142861</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2286,24 +2302,24 @@
         <v>2</v>
       </c>
       <c r="B41" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C41" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="19">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="21">
-        <v>186.55</v>
+        <v>194.45</v>
       </c>
       <c r="H41" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.99228723404255326</v>
+        <v>0.89197247706422012</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2316,27 +2332,27 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C42" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="19">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="21">
-        <v>194.89</v>
+        <v>96.55</v>
       </c>
       <c r="H42" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0097927461139895</v>
+        <v>6.4366666666666665</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2352,24 +2368,24 @@
         <v>2</v>
       </c>
       <c r="B43" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="19">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="21">
-        <v>208</v>
+        <v>187.78</v>
       </c>
       <c r="H43" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.96744186046511627</v>
+        <v>0.8941904761904762</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2382,27 +2398,27 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C44" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="19">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" s="21">
-        <v>189.17</v>
+        <v>103.04</v>
       </c>
       <c r="H44" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.90511961722488032</v>
+        <v>6.44</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2421,21 +2437,21 @@
         <v>2019</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="19">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="21">
-        <v>203.08</v>
+        <v>211.58</v>
       </c>
       <c r="H45" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.86786324786324787</v>
+        <v>0.89652542372881361</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2448,27 +2464,27 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
       </c>
       <c r="C46" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="19">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="21">
-        <v>224.04</v>
+        <v>121.6</v>
       </c>
       <c r="H46" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.92962655601659749</v>
+        <v>6.08</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2487,21 +2503,21 @@
         <v>2019</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="19">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="21">
-        <v>279.91000000000003</v>
+        <v>225.22</v>
       </c>
       <c r="H47" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.92685430463576168</v>
+        <v>0.91182186234817808</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2514,27 +2530,27 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1">
         <v>2019</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="19">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="21">
-        <v>212</v>
+        <v>99.49</v>
       </c>
       <c r="H48" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.89451476793248941</v>
+        <v>6.6326666666666663</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2553,21 +2569,21 @@
         <v>2019</v>
       </c>
       <c r="C49" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="19">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F49" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="21">
-        <v>223.11</v>
+        <v>208.62</v>
       </c>
       <c r="H49" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.89244000000000001</v>
+        <v>0.84120967741935482</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2580,27 +2596,27 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C50" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="19">
-        <v>215</v>
+        <v>22.6</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="21">
-        <v>200.79</v>
+        <v>137.4</v>
       </c>
       <c r="H50" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.93390697674418599</v>
+        <v>6.0796460176991145</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2616,24 +2632,24 @@
         <v>2</v>
       </c>
       <c r="B51" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C51" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="19">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G51" s="21">
-        <v>210.92</v>
+        <v>203.36</v>
       </c>
       <c r="H51" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.93742222222222216</v>
+        <v>0.84033057851239679</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2646,27 +2662,27 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C52" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="19">
-        <v>218</v>
+        <v>19.3</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="21">
-        <v>194.45</v>
+        <v>117.43</v>
       </c>
       <c r="H52" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.89197247706422012</v>
+        <v>6.0844559585492233</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2682,24 +2698,24 @@
         <v>2</v>
       </c>
       <c r="B53" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C53" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="19">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="21">
-        <v>187.78</v>
+        <v>196.39</v>
       </c>
       <c r="H53" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.8941904761904762</v>
+        <v>0.86135964912280694</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2712,27 +2728,27 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C54" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="19">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="21">
-        <v>211.58</v>
+        <v>118.09</v>
       </c>
       <c r="H54" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.89652542372881361</v>
+        <v>6.946470588235294</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2748,24 +2764,24 @@
         <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C55" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="19">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G55" s="21">
-        <v>225.22</v>
+        <v>259.26</v>
       </c>
       <c r="H55" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.91182186234817808</v>
+        <v>0.861328903654485</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2778,27 +2794,27 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C56" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="19">
-        <v>248</v>
+        <v>19.3</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" s="21">
-        <v>208.62</v>
+        <v>117.43</v>
       </c>
       <c r="H56" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.84120967741935482</v>
+        <v>6.0844559585492233</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2817,21 +2833,21 @@
         <v>2020</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="19">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="21">
-        <v>203.36</v>
+        <v>242.93</v>
       </c>
       <c r="H57" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.84033057851239679</v>
+        <v>0.8207094594594595</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2844,27 +2860,27 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1">
         <v>2020</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="19">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="21">
-        <v>196.39</v>
+        <v>96.21</v>
       </c>
       <c r="H58" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.86135964912280694</v>
+        <v>6.4139999999999997</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2883,21 +2899,21 @@
         <v>2020</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="19">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="21">
-        <v>259.26</v>
+        <v>223.27</v>
       </c>
       <c r="H59" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.861328903654485</v>
+        <v>0.80602888086642599</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2910,27 +2926,27 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1">
         <v>2020</v>
       </c>
       <c r="C60" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="19">
-        <v>296</v>
+        <v>17</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="21">
-        <v>242.93</v>
+        <v>121.6</v>
       </c>
       <c r="H60" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.8207094594594595</v>
+        <v>7.1529411764705877</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2949,21 +2965,21 @@
         <v>2020</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="19">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="21">
-        <v>223.27</v>
+        <v>196.29</v>
       </c>
       <c r="H61" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.80602888086642599</v>
+        <v>0.85343478260869565</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2976,27 +2992,27 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1">
         <v>2020</v>
       </c>
       <c r="C62" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="19">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="21">
-        <v>196.29</v>
+        <v>133.76</v>
       </c>
       <c r="H62" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.85343478260869565</v>
+        <v>6.6879999999999997</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4565,38 +4581,38 @@
         <v>2022</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
-      </c>
-      <c r="D101" s="19">
-        <v>30</v>
-      </c>
-      <c r="E101" s="19">
-        <v>19</v>
-      </c>
-      <c r="F101" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>29</v>
+      </c>
+      <c r="E101" s="1">
+        <v>17</v>
+      </c>
+      <c r="F101" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G101" s="21">
-        <v>127.81</v>
+        <v>119.33</v>
       </c>
       <c r="H101" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.7268421052631577</v>
-      </c>
-      <c r="I101" s="30">
+        <v>7.0194117647058825</v>
+      </c>
+      <c r="I101" s="1">
+        <v>908</v>
+      </c>
+      <c r="J101" s="1">
         <v>925</v>
       </c>
-      <c r="J101" s="1">
-        <v>944</v>
-      </c>
       <c r="K101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L101" s="20">
-        <v>71.069999999999993</v>
+        <v>66.349999999999994</v>
       </c>
       <c r="M101" s="20">
-        <v>56.74</v>
+        <v>52.98</v>
       </c>
       <c r="N101" s="23"/>
       <c r="O101" s="9"/>
@@ -4604,7 +4620,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B102" s="1">
         <v>2022</v>
@@ -4613,86 +4629,86 @@
         <v>3</v>
       </c>
       <c r="D102" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E102" s="19">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G102" s="21">
-        <v>363.32</v>
+        <v>127.81</v>
       </c>
       <c r="H102" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.1951315789473684</v>
-      </c>
-      <c r="I102" s="1">
-        <v>21779</v>
+        <v>6.7268421052631577</v>
+      </c>
+      <c r="I102" s="30">
+        <v>925</v>
       </c>
       <c r="J102" s="1">
-        <v>22083</v>
+        <v>944</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="L102" s="20">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="M102" s="20">
+        <v>56.74</v>
+      </c>
+      <c r="N102" s="23"/>
       <c r="O102" s="9"/>
       <c r="P102" s="32"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>2022</v>
       </c>
       <c r="C103" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" s="19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E103" s="19">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G103" s="21">
-        <v>122.42</v>
+        <v>363.32</v>
       </c>
       <c r="H103" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.8011111111111111</v>
+        <v>1.1951315789473684</v>
       </c>
       <c r="I103" s="1">
-        <v>944</v>
+        <v>21779</v>
       </c>
       <c r="J103" s="1">
-        <v>962</v>
+        <v>22083</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L103" s="20">
-        <v>68.069999999999993</v>
-      </c>
-      <c r="M103" s="20">
-        <v>54.35</v>
-      </c>
-      <c r="N103" s="23"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="O103" s="9"/>
       <c r="P103" s="32"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1">
         <v>2022</v>
@@ -4701,86 +4717,86 @@
         <v>4</v>
       </c>
       <c r="D104" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E104" s="19">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" s="21">
-        <v>325.97000000000003</v>
+        <v>122.42</v>
       </c>
       <c r="H104" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0938590604026845</v>
+        <v>6.8011111111111111</v>
       </c>
       <c r="I104" s="1">
-        <v>22083</v>
+        <v>944</v>
       </c>
       <c r="J104" s="1">
-        <v>22381</v>
+        <v>962</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L104" s="20"/>
-      <c r="M104" s="20"/>
-      <c r="N104" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="L104" s="20">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="M104" s="20">
+        <v>54.35</v>
+      </c>
+      <c r="N104" s="23"/>
       <c r="O104" s="9"/>
       <c r="P104" s="32"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>2022</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E105" s="19">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G105" s="21">
-        <v>143.99</v>
+        <v>325.97000000000003</v>
       </c>
       <c r="H105" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>6.5450000000000008</v>
+        <v>1.0938590604026845</v>
       </c>
       <c r="I105" s="1">
-        <v>962</v>
+        <v>22083</v>
       </c>
       <c r="J105" s="1">
-        <v>984</v>
+        <v>22381</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L105" s="20">
-        <v>80.069999999999993</v>
-      </c>
-      <c r="M105" s="20">
-        <v>63.92</v>
-      </c>
-      <c r="N105" s="23"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="O105" s="9"/>
       <c r="P105" s="32"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B106" s="1">
         <v>2022</v>
@@ -4789,88 +4805,86 @@
         <v>5</v>
       </c>
       <c r="D106" s="19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E106" s="19">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G106" s="21">
-        <v>238.83</v>
+        <v>143.99</v>
       </c>
       <c r="H106" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.98283950617283955</v>
+        <v>6.5450000000000008</v>
       </c>
       <c r="I106" s="1">
-        <v>22381</v>
+        <v>962</v>
       </c>
       <c r="J106" s="1">
-        <v>22624</v>
+        <v>984</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L106" s="20"/>
-      <c r="M106" s="20"/>
-      <c r="N106" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="L106" s="20">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="M106" s="20">
+        <v>63.92</v>
+      </c>
+      <c r="N106" s="23"/>
       <c r="O106" s="9"/>
       <c r="P106" s="32"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <v>2022</v>
       </c>
       <c r="C107" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" s="19">
         <v>29</v>
       </c>
       <c r="E107" s="19">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G107" s="21">
-        <v>425.72</v>
+        <v>238.83</v>
       </c>
       <c r="H107" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.8837037037037039</v>
+        <v>0.98283950617283955</v>
       </c>
       <c r="I107" s="1">
-        <v>984</v>
+        <v>22381</v>
       </c>
       <c r="J107" s="1">
-        <v>1038</v>
+        <v>22624</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L107" s="20">
-        <v>236.66</v>
-      </c>
-      <c r="M107" s="20">
-        <v>189.06</v>
-      </c>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
       <c r="N107" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O107" s="9"/>
       <c r="P107" s="32"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B108" s="1">
         <v>2022</v>
@@ -4879,88 +4893,88 @@
         <v>6</v>
       </c>
       <c r="D108" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E108" s="19">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" s="21">
-        <v>197.57</v>
+        <v>425.72</v>
       </c>
       <c r="H108" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.97806930693069305</v>
+        <v>7.8837037037037039</v>
       </c>
       <c r="I108" s="1">
-        <v>22624</v>
+        <v>984</v>
       </c>
       <c r="J108" s="1">
-        <v>22826</v>
+        <v>1038</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
+      <c r="L108" s="20">
+        <v>236.66</v>
+      </c>
+      <c r="M108" s="20">
+        <v>189.06</v>
+      </c>
       <c r="N108" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O108" s="9"/>
       <c r="P108" s="32"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1">
         <v>2022</v>
       </c>
       <c r="C109" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" s="19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E109" s="19">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109" s="21">
-        <v>345.95</v>
+        <v>197.57</v>
       </c>
       <c r="H109" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.6877777777777778</v>
+        <v>0.97806930693069305</v>
       </c>
       <c r="I109" s="1">
-        <v>1038</v>
+        <v>22624</v>
       </c>
       <c r="J109" s="1">
-        <v>1083</v>
+        <v>22826</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L109" s="20">
-        <v>192.33</v>
-      </c>
-      <c r="M109" s="20">
-        <v>153.62</v>
-      </c>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
       <c r="N109" s="23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O109" s="9"/>
       <c r="P109" s="32"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B110" s="1">
         <v>2022</v>
@@ -4969,88 +4983,88 @@
         <v>7</v>
       </c>
       <c r="D110" s="19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E110" s="19">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" s="21">
-        <v>168.67</v>
+        <v>345.95</v>
       </c>
       <c r="H110" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.82681372549019605</v>
+        <v>7.6877777777777778</v>
       </c>
       <c r="I110" s="1">
-        <v>22826</v>
+        <v>1038</v>
       </c>
       <c r="J110" s="1">
-        <v>23030</v>
+        <v>1083</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
+      <c r="L110" s="20">
+        <v>192.33</v>
+      </c>
+      <c r="M110" s="20">
+        <v>153.62</v>
+      </c>
       <c r="N110" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O110" s="9"/>
       <c r="P110" s="32"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B111" s="1">
         <v>2022</v>
       </c>
       <c r="C111" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" s="19">
-        <v>28.4</v>
+        <v>204</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G111" s="21">
-        <v>218.31</v>
+        <v>168.67</v>
       </c>
       <c r="H111" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.6869718309859163</v>
+        <v>0.82681372549019605</v>
       </c>
       <c r="I111" s="1">
-        <v>1083</v>
+        <v>22826</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>23030</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L111" s="20">
-        <v>121.37</v>
-      </c>
-      <c r="M111" s="20">
-        <v>96.94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
       <c r="N111" s="23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O111" s="9"/>
       <c r="P111" s="32"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B112" s="1">
         <v>2022</v>
@@ -5062,83 +5076,85 @@
         <v>30</v>
       </c>
       <c r="E112" s="19">
-        <v>213</v>
+        <v>28.4</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G112" s="21">
-        <v>188.02</v>
+        <v>218.31</v>
       </c>
       <c r="H112" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.88272300469483578</v>
+        <v>7.6869718309859163</v>
       </c>
       <c r="I112" s="1">
-        <v>23030</v>
+        <v>1083</v>
       </c>
       <c r="J112" s="1">
-        <v>23243</v>
+        <v>0</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="L112" s="20">
+        <v>121.37</v>
+      </c>
+      <c r="M112" s="20">
+        <v>96.94</v>
+      </c>
       <c r="N112" s="23" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O112" s="9"/>
       <c r="P112" s="32"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1">
         <v>2022</v>
       </c>
       <c r="C113" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" s="19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E113" s="19">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113" s="21">
-        <v>334.75</v>
+        <v>188.02</v>
       </c>
       <c r="H113" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.1646341463414629</v>
+        <v>0.88272300469483578</v>
       </c>
       <c r="I113" s="1">
-        <v>0</v>
+        <v>23030</v>
       </c>
       <c r="J113" s="1">
-        <v>41</v>
+        <v>23243</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L113" s="20">
-        <v>186.07</v>
-      </c>
-      <c r="M113" s="20">
-        <v>148.68</v>
-      </c>
-      <c r="N113" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O113" s="9"/>
       <c r="P113" s="32"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B114" s="1">
         <v>2022</v>
@@ -5150,83 +5166,83 @@
         <v>33</v>
       </c>
       <c r="E114" s="19">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" s="21">
-        <v>217.43</v>
+        <v>334.75</v>
       </c>
       <c r="H114" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.90595833333333331</v>
+        <v>8.1646341463414629</v>
       </c>
       <c r="I114" s="1">
-        <v>23243</v>
+        <v>0</v>
       </c>
       <c r="J114" s="1">
-        <v>23483</v>
+        <v>41</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="23" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L114" s="20">
+        <v>186.07</v>
+      </c>
+      <c r="M114" s="20">
+        <v>148.68</v>
+      </c>
+      <c r="N114" s="23"/>
       <c r="O114" s="9"/>
       <c r="P114" s="32"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B115" s="1">
         <v>2022</v>
       </c>
       <c r="C115" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E115" s="19">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G115" s="21">
-        <v>286.27</v>
+        <v>217.43</v>
       </c>
       <c r="H115" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.1791428571428568</v>
+        <v>0.90595833333333331</v>
       </c>
       <c r="I115" s="1">
-        <v>41</v>
+        <v>23243</v>
       </c>
       <c r="J115" s="1">
-        <v>76</v>
+        <v>23483</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L115" s="20">
-        <v>159.13</v>
-      </c>
-      <c r="M115" s="20">
-        <v>127.14</v>
-      </c>
-      <c r="N115" s="23"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O115" s="9"/>
       <c r="P115" s="32"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B116" s="1">
         <v>2022</v>
@@ -5235,357 +5251,357 @@
         <v>10</v>
       </c>
       <c r="D116" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E116" s="19">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G116" s="21">
-        <v>191.03</v>
+        <v>286.27</v>
       </c>
       <c r="H116" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.90535545023696684</v>
+        <v>8.1791428571428568</v>
       </c>
       <c r="I116" s="1">
-        <v>23483</v>
+        <v>41</v>
       </c>
       <c r="J116" s="1">
-        <v>23694</v>
+        <v>76</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L116" s="20">
+        <v>159.13</v>
+      </c>
+      <c r="M116" s="20">
+        <v>127.14</v>
+      </c>
+      <c r="N116" s="23"/>
       <c r="O116" s="9"/>
       <c r="P116" s="32"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B117" s="1">
         <v>2022</v>
       </c>
       <c r="C117" s="1">
+        <v>10</v>
+      </c>
+      <c r="D117" s="19">
+        <v>29</v>
+      </c>
+      <c r="E117" s="19">
+        <v>211</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="21">
+        <v>191.03</v>
+      </c>
+      <c r="H117" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>0.90535545023696684</v>
+      </c>
+      <c r="I117" s="1">
+        <v>23483</v>
+      </c>
+      <c r="J117" s="1">
+        <v>23694</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O117" s="9"/>
+      <c r="P117" s="32"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C118" s="1">
         <v>11</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D118" s="19">
         <v>27</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E118" s="19">
         <v>17</v>
       </c>
-      <c r="F117" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G117" s="21">
+      <c r="F118" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="21">
         <f>72.05+57.61</f>
         <v>129.66</v>
       </c>
-      <c r="H117" s="29">
+      <c r="H118" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
         <v>7.6270588235294117</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I118" s="1">
         <v>76</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J118" s="1">
         <v>93</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L117" s="20">
+      <c r="K118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" s="20">
         <v>72.05</v>
       </c>
-      <c r="M117" s="20">
+      <c r="M118" s="20">
         <v>57.61</v>
       </c>
-      <c r="N117" s="23" t="s">
+      <c r="N118" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="O117" s="9"/>
-      <c r="P117" s="32"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C118" s="1">
-        <v>11</v>
-      </c>
-      <c r="D118" s="19">
-        <v>30</v>
-      </c>
-      <c r="E118" s="19">
-        <v>259</v>
-      </c>
-      <c r="F118" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" s="21">
-        <v>222.49</v>
-      </c>
-      <c r="H118" s="29">
-        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.85903474903474908</v>
-      </c>
-      <c r="I118" s="1">
-        <v>23694</v>
-      </c>
-      <c r="J118" s="1">
-        <v>23953</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="O118" s="9"/>
       <c r="P118" s="32"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119" s="1">
         <v>2022</v>
       </c>
       <c r="C119" s="1">
+        <v>11</v>
+      </c>
+      <c r="D119" s="19">
+        <v>30</v>
+      </c>
+      <c r="E119" s="19">
+        <v>259</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="21">
+        <v>222.49</v>
+      </c>
+      <c r="H119" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>0.85903474903474908</v>
+      </c>
+      <c r="I119" s="1">
+        <v>23694</v>
+      </c>
+      <c r="J119" s="1">
+        <v>23953</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L119" s="20"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O119" s="9"/>
+      <c r="P119" s="32"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C120" s="1">
         <v>12</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D120" s="19">
         <v>29</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E120" s="19">
         <v>13</v>
       </c>
-      <c r="F119" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" s="21">
+      <c r="F120" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="21">
         <f>67.18+53.72</f>
         <v>120.9</v>
       </c>
-      <c r="H119" s="29">
+      <c r="H120" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I120" s="1">
         <v>93</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J120" s="1">
         <v>106</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L119" s="20">
+      <c r="K120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L120" s="20">
         <v>67.180000000000007</v>
       </c>
-      <c r="M119" s="20">
+      <c r="M120" s="20">
         <v>53.72</v>
       </c>
-      <c r="N119" s="23" t="s">
+      <c r="N120" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="O119" s="9"/>
-      <c r="P119" s="32"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C120" s="1">
-        <v>12</v>
-      </c>
-      <c r="D120" s="19">
-        <v>32</v>
-      </c>
-      <c r="E120" s="19">
-        <v>282</v>
-      </c>
-      <c r="F120" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G120" s="21">
-        <v>239.68</v>
-      </c>
-      <c r="H120" s="29">
-        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.84992907801418438</v>
-      </c>
-      <c r="I120" s="1">
-        <v>23953</v>
-      </c>
-      <c r="J120" s="1">
-        <v>24235</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L120" s="20"/>
-      <c r="M120" s="20"/>
-      <c r="N120" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="O120" s="9"/>
       <c r="P120" s="32"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B121" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C121" s="1">
+        <v>12</v>
+      </c>
+      <c r="D121" s="19">
+        <v>32</v>
+      </c>
+      <c r="E121" s="19">
+        <v>282</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="21">
+        <v>239.68</v>
+      </c>
+      <c r="H121" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>0.84992907801418438</v>
+      </c>
+      <c r="I121" s="1">
+        <v>23953</v>
+      </c>
+      <c r="J121" s="1">
+        <v>24235</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" s="20"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O121" s="9"/>
+      <c r="P121" s="32"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1">
         <v>2023</v>
       </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
-      <c r="D121" s="19">
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="19">
         <v>33</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E122" s="19">
         <v>20</v>
       </c>
-      <c r="F121" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G121" s="21">
+      <c r="F122" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="21">
         <f>86.55+69.2</f>
         <v>155.75</v>
       </c>
-      <c r="H121" s="29">
+      <c r="H122" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
         <v>7.7874999999999996</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I122" s="1">
         <v>106</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J122" s="1">
         <v>126</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L121" s="20">
+      <c r="K122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L122" s="20">
         <v>86.55</v>
       </c>
-      <c r="M121" s="20">
+      <c r="M122" s="20">
         <v>69.2</v>
       </c>
-      <c r="N121" s="23"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="32"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-      <c r="D122" s="19">
-        <v>29</v>
-      </c>
-      <c r="E122" s="19">
-        <v>326</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" s="21">
-        <v>284.01</v>
-      </c>
-      <c r="H122" s="29">
-        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.87119631901840489</v>
-      </c>
-      <c r="I122" s="1">
-        <v>24235</v>
-      </c>
-      <c r="J122" s="1">
-        <v>24561</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="N122" s="23"/>
       <c r="O122" s="9"/>
       <c r="P122" s="32"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123" s="1">
         <v>2023</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" s="19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E123" s="19">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G123" s="21">
-        <v>160.75</v>
+        <v>284.01</v>
       </c>
       <c r="H123" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.0374999999999996</v>
+        <v>0.87119631901840489</v>
       </c>
       <c r="I123" s="1">
-        <v>126</v>
+        <v>24235</v>
       </c>
       <c r="J123" s="1">
-        <v>146</v>
+        <v>24561</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L123" s="20">
-        <v>89.34</v>
-      </c>
-      <c r="M123" s="20">
-        <v>71.41</v>
-      </c>
-      <c r="N123" s="23"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O123" s="9"/>
       <c r="P123" s="32"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B124" s="1">
         <v>2023</v>
@@ -5594,86 +5610,86 @@
         <v>2</v>
       </c>
       <c r="D124" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E124" s="19">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G124" s="21">
-        <v>367.74</v>
+        <v>160.75</v>
       </c>
       <c r="H124" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.94534704370179956</v>
+        <v>8.0374999999999996</v>
       </c>
       <c r="I124" s="1">
-        <v>24561</v>
+        <v>126</v>
       </c>
       <c r="J124" s="1">
-        <v>24950</v>
+        <v>146</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-      <c r="N124" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L124" s="20">
+        <v>89.34</v>
+      </c>
+      <c r="M124" s="20">
+        <v>71.41</v>
+      </c>
+      <c r="N124" s="23"/>
       <c r="O124" s="9"/>
       <c r="P124" s="32"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125" s="1">
         <v>2023</v>
       </c>
       <c r="C125" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" s="19">
         <v>30</v>
       </c>
       <c r="E125" s="19">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G125" s="21">
-        <v>189.23</v>
+        <v>367.74</v>
       </c>
       <c r="H125" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.8845833333333326</v>
+        <v>0.94534704370179956</v>
       </c>
       <c r="I125" s="1">
-        <v>146</v>
+        <v>24561</v>
       </c>
       <c r="J125" s="1">
-        <v>170</v>
+        <v>24950</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L125" s="20">
-        <v>105.18</v>
-      </c>
-      <c r="M125" s="20">
-        <v>84.05</v>
-      </c>
-      <c r="N125" s="23"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O125" s="9"/>
       <c r="P125" s="32"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B126" s="1">
         <v>2023</v>
@@ -5682,86 +5698,86 @@
         <v>3</v>
       </c>
       <c r="D126" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E126" s="19">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G126" s="21">
-        <v>347.01</v>
+        <v>189.23</v>
       </c>
       <c r="H126" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.9507123287671233</v>
+        <v>7.8845833333333326</v>
       </c>
       <c r="I126" s="1">
-        <v>24950</v>
+        <v>146</v>
       </c>
       <c r="J126" s="1">
-        <v>25315</v>
+        <v>170</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
-      <c r="N126" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L126" s="20">
+        <v>105.18</v>
+      </c>
+      <c r="M126" s="20">
+        <v>84.05</v>
+      </c>
+      <c r="N126" s="23"/>
       <c r="O126" s="9"/>
       <c r="P126" s="32"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B127" s="1">
         <v>2023</v>
       </c>
       <c r="C127" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127" s="19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E127" s="19">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G127" s="21">
-        <v>162.72999999999999</v>
+        <v>347.01</v>
       </c>
       <c r="H127" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.3968181818181815</v>
+        <v>0.9507123287671233</v>
       </c>
       <c r="I127" s="1">
-        <v>170</v>
+        <v>24950</v>
       </c>
       <c r="J127" s="1">
-        <v>192</v>
+        <v>25315</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L127" s="20">
-        <v>90.43</v>
-      </c>
-      <c r="M127" s="20">
-        <v>72.3</v>
-      </c>
-      <c r="N127" s="23"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O127" s="9"/>
       <c r="P127" s="32"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B128" s="1">
         <v>2023</v>
@@ -5773,83 +5789,83 @@
         <v>33</v>
       </c>
       <c r="E128" s="19">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G128" s="21">
-        <v>253.16</v>
+        <v>162.72999999999999</v>
       </c>
       <c r="H128" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.96258555133079848</v>
+        <v>7.3968181818181815</v>
       </c>
       <c r="I128" s="1">
-        <v>25315</v>
+        <v>170</v>
       </c>
       <c r="J128" s="1">
-        <v>25578</v>
+        <v>192</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L128" s="20">
+        <v>90.43</v>
+      </c>
+      <c r="M128" s="20">
+        <v>72.3</v>
+      </c>
+      <c r="N128" s="23"/>
       <c r="O128" s="9"/>
       <c r="P128" s="32"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1">
         <v>2023</v>
       </c>
       <c r="C129" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D129" s="19">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E129" s="19">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G129" s="21">
-        <v>131.37</v>
+        <v>253.16</v>
       </c>
       <c r="H129" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.2106250000000003</v>
+        <v>0.96258555133079848</v>
       </c>
       <c r="I129" s="1">
-        <v>192</v>
+        <v>25315</v>
       </c>
       <c r="J129" s="1">
-        <v>208</v>
+        <v>25578</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L129" s="20">
-        <v>73</v>
-      </c>
-      <c r="M129" s="20">
-        <v>58.37</v>
-      </c>
-      <c r="N129" s="23"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O129" s="9"/>
       <c r="P129" s="32"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B130" s="1">
         <v>2023</v>
@@ -5861,83 +5877,83 @@
         <v>29</v>
       </c>
       <c r="E130" s="19">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G130" s="21">
-        <v>203.7</v>
+        <v>131.37</v>
       </c>
       <c r="H130" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.98883495145631062</v>
+        <v>8.2106250000000003</v>
       </c>
       <c r="I130" s="1">
-        <v>25578</v>
+        <v>192</v>
       </c>
       <c r="J130" s="1">
-        <v>25784</v>
+        <v>208</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
-      <c r="N130" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L130" s="20">
+        <v>73</v>
+      </c>
+      <c r="M130" s="20">
+        <v>58.37</v>
+      </c>
+      <c r="N130" s="23"/>
       <c r="O130" s="9"/>
       <c r="P130" s="32"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B131" s="1">
         <v>2023</v>
       </c>
       <c r="C131" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D131" s="19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E131" s="19">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G131" s="21">
-        <v>155.75</v>
+        <v>203.7</v>
       </c>
       <c r="H131" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.7874999999999996</v>
+        <v>0.98883495145631062</v>
       </c>
       <c r="I131" s="1">
-        <v>208</v>
+        <v>25578</v>
       </c>
       <c r="J131" s="1">
-        <v>228</v>
+        <v>25784</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L131" s="20">
-        <v>86.55</v>
-      </c>
-      <c r="M131" s="20">
-        <v>69.2</v>
-      </c>
-      <c r="N131" s="23"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O131" s="9"/>
       <c r="P131" s="32"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B132" s="1">
         <v>2023</v>
@@ -5946,86 +5962,86 @@
         <v>6</v>
       </c>
       <c r="D132" s="19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E132" s="19">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G132" s="21">
-        <v>197.95</v>
+        <v>155.75</v>
       </c>
       <c r="H132" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.97995049504950493</v>
+        <v>7.7874999999999996</v>
       </c>
       <c r="I132" s="1">
-        <v>25784</v>
+        <v>208</v>
       </c>
       <c r="J132" s="1">
-        <v>25986</v>
+        <v>228</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-      <c r="N132" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L132" s="20">
+        <v>86.55</v>
+      </c>
+      <c r="M132" s="20">
+        <v>69.2</v>
+      </c>
+      <c r="N132" s="23"/>
       <c r="O132" s="9"/>
       <c r="P132" s="32"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B133" s="1">
         <v>2023</v>
       </c>
       <c r="C133" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D133" s="19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E133" s="19">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G133" s="21">
-        <v>128.77000000000001</v>
+        <v>197.95</v>
       </c>
       <c r="H133" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.0481250000000006</v>
+        <v>0.97995049504950493</v>
       </c>
       <c r="I133" s="1">
-        <v>228</v>
+        <v>25784</v>
       </c>
       <c r="J133" s="1">
-        <v>244</v>
+        <v>25986</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L133" s="20">
-        <v>71.56</v>
-      </c>
-      <c r="M133" s="20">
-        <v>57.21</v>
-      </c>
-      <c r="N133" s="23"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O133" s="9"/>
       <c r="P133" s="32"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B134" s="1">
         <v>2023</v>
@@ -6034,86 +6050,86 @@
         <v>7</v>
       </c>
       <c r="D134" s="19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E134" s="19">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G134" s="21">
-        <v>166.68</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="H134" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.92088397790055254</v>
+        <v>8.0481250000000006</v>
       </c>
       <c r="I134" s="1">
-        <v>25986</v>
+        <v>228</v>
       </c>
       <c r="J134" s="1">
-        <v>26167</v>
+        <v>244</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L134" s="20">
+        <v>71.56</v>
+      </c>
+      <c r="M134" s="20">
+        <v>57.21</v>
+      </c>
+      <c r="N134" s="23"/>
       <c r="O134" s="9"/>
       <c r="P134" s="32"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1">
         <v>2023</v>
       </c>
       <c r="C135" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E135" s="19">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G135" s="21">
-        <v>211.97</v>
+        <v>166.68</v>
       </c>
       <c r="H135" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.8507407407407408</v>
+        <v>0.92088397790055254</v>
       </c>
       <c r="I135" s="1">
-        <v>244</v>
+        <v>25986</v>
       </c>
       <c r="J135" s="1">
-        <v>271</v>
+        <v>26167</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L135" s="20">
-        <v>117.88</v>
-      </c>
-      <c r="M135" s="20">
-        <v>94.09</v>
-      </c>
-      <c r="N135" s="23"/>
+      <c r="L135" s="20"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O135" s="9"/>
       <c r="P135" s="32"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B136" s="1">
         <v>2023</v>
@@ -6122,86 +6138,86 @@
         <v>8</v>
       </c>
       <c r="D136" s="19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E136" s="19">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="F136" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" s="21">
-        <v>206.92</v>
+        <v>211.97</v>
       </c>
       <c r="H136" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0294527363184078</v>
+        <v>7.8507407407407408</v>
       </c>
       <c r="I136" s="1">
-        <v>26167</v>
+        <v>244</v>
       </c>
       <c r="J136" s="1">
-        <v>26368</v>
+        <v>271</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
-      <c r="N136" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L136" s="20">
+        <v>117.88</v>
+      </c>
+      <c r="M136" s="20">
+        <v>94.09</v>
+      </c>
+      <c r="N136" s="23"/>
       <c r="O136" s="9"/>
       <c r="P136" s="32"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B137" s="1">
         <v>2023</v>
       </c>
       <c r="C137" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" s="19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E137" s="19">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G137" s="21">
-        <v>153.49</v>
+        <v>206.92</v>
       </c>
       <c r="H137" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.5272222222222229</v>
+        <v>1.0294527363184078</v>
       </c>
       <c r="I137" s="1">
-        <v>271</v>
+        <v>26167</v>
       </c>
       <c r="J137" s="1">
-        <v>289</v>
+        <v>26368</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L137" s="20">
-        <v>85.34</v>
-      </c>
-      <c r="M137" s="20">
-        <v>68.150000000000006</v>
-      </c>
-      <c r="N137" s="23"/>
+      <c r="L137" s="20"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O137" s="9"/>
       <c r="P137" s="32"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B138" s="1">
         <v>2023</v>
@@ -6210,86 +6226,86 @@
         <v>9</v>
       </c>
       <c r="D138" s="19">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E138" s="19">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G138" s="21">
-        <v>186.17</v>
+        <v>153.49</v>
       </c>
       <c r="H138" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0229120879120879</v>
+        <v>8.5272222222222229</v>
       </c>
       <c r="I138" s="1">
-        <v>26368</v>
+        <v>271</v>
       </c>
       <c r="J138" s="1">
-        <v>26550</v>
+        <v>289</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-      <c r="N138" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L138" s="20">
+        <v>85.34</v>
+      </c>
+      <c r="M138" s="20">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="N138" s="23"/>
       <c r="O138" s="9"/>
       <c r="P138" s="32"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139" s="1">
         <v>2023</v>
       </c>
       <c r="C139" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" s="19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E139" s="19">
+        <v>182</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="21">
+        <v>186.17</v>
+      </c>
+      <c r="H139" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>1.0229120879120879</v>
+      </c>
+      <c r="I139" s="1">
+        <v>26368</v>
+      </c>
+      <c r="J139" s="1">
+        <v>26550</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F139" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G139" s="21">
-        <v>136.75</v>
-      </c>
-      <c r="H139" s="29">
-        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.0441176470588243</v>
-      </c>
-      <c r="I139" s="1">
-        <v>289</v>
-      </c>
-      <c r="J139" s="1">
-        <v>306</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L139" s="20">
-        <v>76.03</v>
-      </c>
-      <c r="M139" s="20">
-        <v>60.72</v>
-      </c>
-      <c r="N139" s="23"/>
       <c r="O139" s="9"/>
       <c r="P139" s="32"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B140" s="1">
         <v>2023</v>
@@ -6298,86 +6314,86 @@
         <v>10</v>
       </c>
       <c r="D140" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E140" s="19">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G140" s="21">
-        <v>222.29</v>
+        <v>136.75</v>
       </c>
       <c r="H140" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0150228310502283</v>
+        <v>8.0441176470588243</v>
       </c>
       <c r="I140" s="1">
-        <v>26550</v>
+        <v>289</v>
       </c>
       <c r="J140" s="1">
-        <v>26769</v>
+        <v>306</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
-      <c r="N140" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L140" s="20">
+        <v>76.03</v>
+      </c>
+      <c r="M140" s="20">
+        <v>60.72</v>
+      </c>
+      <c r="N140" s="23"/>
       <c r="O140" s="9"/>
       <c r="P140" s="32"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1">
         <v>2023</v>
       </c>
       <c r="C141" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" s="19">
         <v>30</v>
       </c>
       <c r="E141" s="19">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G141" s="21">
-        <v>142.93</v>
+        <v>222.29</v>
       </c>
       <c r="H141" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.940555555555556</v>
+        <v>1.0150228310502283</v>
       </c>
       <c r="I141" s="1">
-        <v>306</v>
+        <v>26550</v>
       </c>
       <c r="J141" s="1">
-        <v>324</v>
+        <v>26769</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L141" s="20">
-        <v>79.47</v>
-      </c>
-      <c r="M141" s="20">
-        <v>63.46</v>
-      </c>
-      <c r="N141" s="23"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O141" s="9"/>
       <c r="P141" s="32"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B142" s="1">
         <v>2023</v>
@@ -6389,83 +6405,83 @@
         <v>30</v>
       </c>
       <c r="E142" s="19">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" s="21">
-        <v>283.67</v>
+        <v>142.93</v>
       </c>
       <c r="H142" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.98496527777777787</v>
+        <v>7.940555555555556</v>
       </c>
       <c r="I142" s="1">
-        <v>26769</v>
+        <v>306</v>
       </c>
       <c r="J142" s="1">
-        <v>27057</v>
+        <v>324</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
-      <c r="N142" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L142" s="20">
+        <v>79.47</v>
+      </c>
+      <c r="M142" s="20">
+        <v>63.46</v>
+      </c>
+      <c r="N142" s="23"/>
       <c r="O142" s="9"/>
       <c r="P142" s="32"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1">
         <v>2023</v>
       </c>
       <c r="C143" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E143" s="19">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G143" s="21">
-        <v>163.01</v>
+        <v>283.67</v>
       </c>
       <c r="H143" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.1504999999999992</v>
+        <v>0.98496527777777787</v>
       </c>
       <c r="I143" s="1">
-        <v>324</v>
+        <v>26769</v>
       </c>
       <c r="J143" s="1">
-        <v>344</v>
+        <v>27057</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L143" s="20">
-        <v>90.63</v>
-      </c>
-      <c r="M143" s="20">
-        <v>72.38</v>
-      </c>
-      <c r="N143" s="23"/>
+      <c r="L143" s="20"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O143" s="9"/>
       <c r="P143" s="32"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B144" s="1">
         <v>2023</v>
@@ -6474,86 +6490,86 @@
         <v>12</v>
       </c>
       <c r="D144" s="19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E144" s="19">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G144" s="21">
-        <v>331.78</v>
+        <v>163.01</v>
       </c>
       <c r="H144" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.99335329341317358</v>
+        <v>8.1504999999999992</v>
       </c>
       <c r="I144" s="1">
-        <v>27057</v>
+        <v>324</v>
       </c>
       <c r="J144" s="1">
-        <v>27391</v>
+        <v>344</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L144" s="20">
+        <v>90.63</v>
+      </c>
+      <c r="M144" s="20">
+        <v>72.38</v>
+      </c>
+      <c r="N144" s="23"/>
       <c r="O144" s="9"/>
       <c r="P144" s="32"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B145" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C145" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D145" s="19">
         <v>32</v>
       </c>
       <c r="E145" s="19">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G145" s="21">
-        <v>155.29</v>
+        <v>331.78</v>
       </c>
       <c r="H145" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.7645</v>
+        <v>0.99335329341317358</v>
       </c>
       <c r="I145" s="1">
-        <v>344</v>
+        <v>27057</v>
       </c>
       <c r="J145" s="1">
-        <v>364</v>
+        <v>27391</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L145" s="20">
-        <v>86.34</v>
-      </c>
-      <c r="M145" s="20">
-        <v>68.95</v>
-      </c>
-      <c r="N145" s="23"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O145" s="9"/>
       <c r="P145" s="32"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B146" s="1">
         <v>2024</v>
@@ -6562,86 +6578,86 @@
         <v>1</v>
       </c>
       <c r="D146" s="19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E146" s="19">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" s="21">
-        <v>316.37</v>
+        <v>155.29</v>
       </c>
       <c r="H146" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0011708860759494</v>
+        <v>7.7645</v>
       </c>
       <c r="I146" s="1">
-        <v>27391</v>
+        <v>344</v>
       </c>
       <c r="J146" s="1">
-        <v>27707</v>
+        <v>364</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L146" s="20"/>
-      <c r="M146" s="20"/>
-      <c r="N146" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L146" s="20">
+        <v>86.34</v>
+      </c>
+      <c r="M146" s="20">
+        <v>68.95</v>
+      </c>
+      <c r="N146" s="23"/>
       <c r="O146" s="9"/>
       <c r="P146" s="32"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B147" s="1">
         <v>2024</v>
       </c>
       <c r="C147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" s="19">
         <v>29</v>
       </c>
       <c r="E147" s="19">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G147" s="21">
-        <v>140.29</v>
+        <v>316.37</v>
       </c>
       <c r="H147" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.7938888888888886</v>
+        <v>1.0011708860759494</v>
       </c>
       <c r="I147" s="1">
-        <v>364</v>
+        <v>27391</v>
       </c>
       <c r="J147" s="1">
-        <v>382</v>
+        <v>27707</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L147" s="20">
-        <v>78</v>
-      </c>
-      <c r="M147" s="20">
-        <v>62.29</v>
-      </c>
-      <c r="N147" s="23"/>
+      <c r="L147" s="20"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O147" s="9"/>
       <c r="P147" s="32"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B148" s="1">
         <v>2024</v>
@@ -6650,86 +6666,86 @@
         <v>2</v>
       </c>
       <c r="D148" s="19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E148" s="19">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G148" s="21">
-        <v>318.74</v>
+        <v>140.29</v>
       </c>
       <c r="H148" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.99918495297805643</v>
+        <v>7.7938888888888886</v>
       </c>
       <c r="I148" s="1">
-        <v>27707</v>
+        <v>364</v>
       </c>
       <c r="J148" s="1">
-        <v>28026</v>
+        <v>382</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L148" s="20"/>
-      <c r="M148" s="20"/>
-      <c r="N148" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L148" s="20">
+        <v>78</v>
+      </c>
+      <c r="M148" s="20">
+        <v>62.29</v>
+      </c>
+      <c r="N148" s="23"/>
       <c r="O148" s="9"/>
       <c r="P148" s="32"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1">
         <v>2024</v>
       </c>
       <c r="C149" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E149" s="19">
-        <v>23</v>
+        <v>319</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G149" s="21">
-        <v>185.17</v>
+        <v>318.74</v>
       </c>
       <c r="H149" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.0508695652173916</v>
+        <v>0.99918495297805643</v>
       </c>
       <c r="I149" s="1">
-        <v>382</v>
+        <v>27707</v>
       </c>
       <c r="J149" s="1">
-        <v>405</v>
+        <v>28026</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L149" s="20">
-        <v>102.96</v>
-      </c>
-      <c r="M149" s="20">
-        <v>82.21</v>
-      </c>
-      <c r="N149" s="23"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O149" s="9"/>
       <c r="P149" s="32"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B150" s="1">
         <v>2024</v>
@@ -6738,86 +6754,86 @@
         <v>3</v>
       </c>
       <c r="D150" s="19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E150" s="19">
-        <v>359</v>
+        <v>23</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G150" s="21">
-        <v>355.04</v>
+        <v>185.17</v>
       </c>
       <c r="H150" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.98896935933147634</v>
+        <v>8.0508695652173916</v>
       </c>
       <c r="I150" s="1">
-        <v>28026</v>
+        <v>382</v>
       </c>
       <c r="J150" s="1">
-        <v>28385</v>
+        <v>405</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L150" s="20"/>
-      <c r="M150" s="20"/>
-      <c r="N150" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L150" s="20">
+        <v>102.96</v>
+      </c>
+      <c r="M150" s="20">
+        <v>82.21</v>
+      </c>
+      <c r="N150" s="23"/>
       <c r="O150" s="9"/>
       <c r="P150" s="32"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B151" s="1">
         <v>2024</v>
       </c>
       <c r="C151" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151" s="19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E151" s="19">
-        <v>23</v>
+        <v>359</v>
       </c>
       <c r="F151" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G151" s="21">
-        <v>187.23</v>
+        <v>355.04</v>
       </c>
       <c r="H151" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.1404347826086951</v>
+        <v>0.98896935933147634</v>
       </c>
       <c r="I151" s="1">
-        <v>405</v>
+        <v>28026</v>
       </c>
       <c r="J151" s="1">
-        <v>428</v>
+        <v>28385</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L151" s="20">
-        <v>104.1</v>
-      </c>
-      <c r="M151" s="20">
-        <v>83.13</v>
-      </c>
-      <c r="N151" s="23"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O151" s="9"/>
       <c r="P151" s="32"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B152" s="1">
         <v>2024</v>
@@ -6829,83 +6845,83 @@
         <v>32</v>
       </c>
       <c r="E152" s="19">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G152" s="21">
-        <v>301.11</v>
+        <v>187.23</v>
       </c>
       <c r="H152" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0037</v>
+        <v>8.1404347826086951</v>
       </c>
       <c r="I152" s="1">
-        <v>28385</v>
+        <v>405</v>
       </c>
       <c r="J152" s="1">
-        <v>28685</v>
+        <v>428</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L152" s="20"/>
-      <c r="M152" s="20"/>
-      <c r="N152" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L152" s="20">
+        <v>104.1</v>
+      </c>
+      <c r="M152" s="20">
+        <v>83.13</v>
+      </c>
+      <c r="N152" s="23"/>
       <c r="O152" s="9"/>
       <c r="P152" s="32"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B153" s="1">
         <v>2024</v>
       </c>
       <c r="C153" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D153" s="19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E153" s="19">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="F153" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G153" s="21">
-        <v>145.46</v>
+        <v>301.11</v>
       </c>
       <c r="H153" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.6557894736842114</v>
+        <v>1.0037</v>
       </c>
       <c r="I153" s="1">
-        <v>428</v>
+        <v>28385</v>
       </c>
       <c r="J153" s="1">
-        <v>447</v>
+        <v>28685</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L153" s="20">
-        <v>81.44</v>
-      </c>
-      <c r="M153" s="20">
-        <v>65.03</v>
-      </c>
-      <c r="N153" s="23"/>
+      <c r="L153" s="20"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O153" s="9"/>
       <c r="P153" s="32"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B154" s="1">
         <v>2024</v>
@@ -6917,83 +6933,83 @@
         <v>30</v>
       </c>
       <c r="E154" s="19">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G154" s="21">
-        <v>291.26</v>
+        <v>145.46</v>
       </c>
       <c r="H154" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0113194444444444</v>
+        <v>7.6557894736842114</v>
       </c>
       <c r="I154" s="1">
-        <v>28685</v>
+        <v>428</v>
       </c>
       <c r="J154" s="1">
-        <v>28973</v>
+        <v>447</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L154" s="20"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L154" s="20">
+        <v>81.44</v>
+      </c>
+      <c r="M154" s="20">
+        <v>65.03</v>
+      </c>
+      <c r="N154" s="23"/>
       <c r="O154" s="9"/>
       <c r="P154" s="32"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1">
         <v>2024</v>
       </c>
       <c r="C155" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155" s="19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E155" s="19">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G155" s="21">
-        <v>155.29</v>
+        <v>291.26</v>
       </c>
       <c r="H155" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.7645</v>
+        <v>1.0113194444444444</v>
       </c>
       <c r="I155" s="1">
-        <v>447</v>
+        <v>28685</v>
       </c>
       <c r="J155" s="1">
-        <v>467</v>
+        <v>28973</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L155" s="20">
-        <v>86.34</v>
-      </c>
-      <c r="M155" s="20">
-        <v>68.95</v>
-      </c>
-      <c r="N155" s="23"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O155" s="9"/>
       <c r="P155" s="32"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B156" s="1">
         <v>2024</v>
@@ -7002,86 +7018,86 @@
         <v>6</v>
       </c>
       <c r="D156" s="19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E156" s="19">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="F156" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G156" s="21">
-        <v>228.94</v>
+        <v>155.29</v>
       </c>
       <c r="H156" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0041228070175439</v>
+        <v>7.7645</v>
       </c>
       <c r="I156" s="1">
-        <v>28973</v>
+        <v>447</v>
       </c>
       <c r="J156" s="1">
-        <v>29201</v>
+        <v>467</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-      <c r="N156" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L156" s="20">
+        <v>86.34</v>
+      </c>
+      <c r="M156" s="20">
+        <v>68.95</v>
+      </c>
+      <c r="N156" s="23"/>
       <c r="O156" s="9"/>
       <c r="P156" s="32"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1">
         <v>2024</v>
       </c>
       <c r="C157" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157" s="19">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E157" s="19">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G157" s="21">
-        <v>133.21</v>
+        <v>228.94</v>
       </c>
       <c r="H157" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.3256250000000005</v>
+        <v>1.0041228070175439</v>
       </c>
       <c r="I157" s="1">
-        <v>467</v>
+        <v>28973</v>
       </c>
       <c r="J157" s="1">
-        <v>483</v>
+        <v>29201</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L157" s="20">
-        <v>74.06</v>
-      </c>
-      <c r="M157" s="20">
-        <v>59.16</v>
-      </c>
-      <c r="N157" s="23"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="O157" s="9"/>
       <c r="P157" s="32"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B158" s="1">
         <v>2024</v>
@@ -7090,86 +7106,86 @@
         <v>7</v>
       </c>
       <c r="D158" s="19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E158" s="19">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G158" s="21">
-        <v>223.92</v>
+        <v>133.21</v>
       </c>
       <c r="H158" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0224657534246575</v>
+        <v>8.3256250000000005</v>
       </c>
       <c r="I158" s="1">
-        <v>29201</v>
+        <v>467</v>
       </c>
       <c r="J158" s="1">
-        <v>29420</v>
+        <v>483</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-      <c r="N158" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="L158" s="20">
+        <v>74.06</v>
+      </c>
+      <c r="M158" s="20">
+        <v>59.16</v>
+      </c>
+      <c r="N158" s="23"/>
       <c r="O158" s="9"/>
       <c r="P158" s="32"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B159" s="1">
         <v>2024</v>
       </c>
       <c r="C159" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159" s="19">
         <v>30</v>
       </c>
       <c r="E159" s="19">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G159" s="21">
-        <v>141.49</v>
+        <v>223.92</v>
       </c>
       <c r="H159" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.8431250000000006</v>
+        <v>1.0224657534246575</v>
       </c>
       <c r="I159" s="1">
-        <v>483</v>
+        <v>29201</v>
       </c>
       <c r="J159" s="1">
-        <v>499</v>
+        <v>29420</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L159" s="20">
-        <v>78.61</v>
-      </c>
-      <c r="M159" s="20">
-        <v>62.88</v>
-      </c>
-      <c r="N159" s="23"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="O159" s="9"/>
       <c r="P159" s="32"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B160" s="1">
         <v>2024</v>
@@ -7178,86 +7194,86 @@
         <v>8</v>
       </c>
       <c r="D160" s="19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E160" s="19">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G160" s="21">
-        <v>221.43</v>
+        <v>141.49</v>
       </c>
       <c r="H160" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0204147465437787</v>
+        <v>8.8431250000000006</v>
       </c>
       <c r="I160" s="1">
-        <v>29420</v>
+        <v>483</v>
       </c>
       <c r="J160" s="1">
-        <v>29637</v>
+        <v>499</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="L160" s="20">
+        <v>78.61</v>
+      </c>
+      <c r="M160" s="20">
+        <v>62.88</v>
+      </c>
+      <c r="N160" s="23"/>
       <c r="O160" s="9"/>
       <c r="P160" s="32"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B161" s="1">
         <v>2024</v>
       </c>
       <c r="C161" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" s="19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E161" s="19">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G161" s="21">
-        <v>150.66999999999999</v>
+        <v>221.43</v>
       </c>
       <c r="H161" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.8629411764705868</v>
+        <v>1.0204147465437787</v>
       </c>
       <c r="I161" s="1">
-        <v>499</v>
+        <v>29420</v>
       </c>
       <c r="J161" s="1">
-        <v>516</v>
+        <v>29637</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L161" s="20">
-        <v>83.71</v>
-      </c>
-      <c r="M161" s="20">
-        <v>66.959999999999994</v>
-      </c>
-      <c r="N161" s="23"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="O161" s="9"/>
       <c r="P161" s="32"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B162" s="1">
         <v>2024</v>
@@ -7266,86 +7282,86 @@
         <v>9</v>
       </c>
       <c r="D162" s="19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E162" s="19">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G162" s="21">
-        <v>221.5</v>
+        <v>150.66999999999999</v>
       </c>
       <c r="H162" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0804878048780489</v>
+        <v>8.8629411764705868</v>
       </c>
       <c r="I162" s="1">
-        <v>29637</v>
+        <v>499</v>
       </c>
       <c r="J162" s="1">
-        <v>29842</v>
+        <v>516</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L162" s="20"/>
-      <c r="M162" s="20"/>
-      <c r="N162" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="L162" s="20">
+        <v>83.71</v>
+      </c>
+      <c r="M162" s="20">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="N162" s="23"/>
       <c r="O162" s="9"/>
       <c r="P162" s="32"/>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B163" s="1">
         <v>2024</v>
       </c>
       <c r="C163" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D163" s="19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E163" s="19">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G163" s="21">
-        <v>155.31</v>
+        <v>221.5</v>
       </c>
       <c r="H163" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.1742105263157896</v>
+        <v>1.0804878048780489</v>
       </c>
       <c r="I163" s="1">
-        <v>516</v>
+        <v>29637</v>
       </c>
       <c r="J163" s="1">
-        <v>535</v>
+        <v>29842</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L163" s="20">
-        <v>86.29</v>
-      </c>
-      <c r="M163" s="20">
-        <v>69.02</v>
-      </c>
-      <c r="N163" s="23"/>
+      <c r="L163" s="20"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="O163" s="9"/>
       <c r="P163" s="32"/>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B164" s="1">
         <v>2024</v>
@@ -7354,86 +7370,86 @@
         <v>10</v>
       </c>
       <c r="D164" s="19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E164" s="19">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G164" s="21">
-        <v>238.95</v>
+        <v>155.31</v>
       </c>
       <c r="H164" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.1113953488372093</v>
+        <v>8.1742105263157896</v>
       </c>
       <c r="I164" s="1">
-        <v>29842</v>
+        <v>516</v>
       </c>
       <c r="J164" s="1">
-        <v>30057</v>
+        <v>535</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L164" s="20"/>
-      <c r="M164" s="20"/>
-      <c r="N164" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="L164" s="20">
+        <v>86.29</v>
+      </c>
+      <c r="M164" s="20">
+        <v>69.02</v>
+      </c>
+      <c r="N164" s="23"/>
       <c r="O164" s="9"/>
       <c r="P164" s="32"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B165" s="1">
         <v>2024</v>
       </c>
       <c r="C165" s="1">
-        <v>11</v>
-      </c>
-      <c r="D165" s="31">
-        <v>29</v>
-      </c>
-      <c r="E165" s="31">
-        <v>15</v>
-      </c>
-      <c r="F165" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G165" s="29">
-        <v>135.05000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="D165" s="19">
+        <v>30</v>
+      </c>
+      <c r="E165" s="19">
+        <v>215</v>
+      </c>
+      <c r="F165" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="21">
+        <v>238.95</v>
       </c>
       <c r="H165" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>9.0033333333333339</v>
+        <v>1.1113953488372093</v>
       </c>
       <c r="I165" s="1">
-        <v>535</v>
+        <v>29842</v>
       </c>
       <c r="J165" s="1">
-        <v>550</v>
+        <v>30057</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L165" s="25">
-        <v>75.03</v>
-      </c>
-      <c r="M165" s="25">
-        <v>60.02</v>
-      </c>
-      <c r="N165" s="23"/>
+      <c r="L165" s="20"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="O165" s="9"/>
       <c r="P165" s="32"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B166" s="1">
         <v>2024</v>
@@ -7442,128 +7458,128 @@
         <v>11</v>
       </c>
       <c r="D166" s="31">
+        <v>29</v>
+      </c>
+      <c r="E166" s="31">
+        <v>15</v>
+      </c>
+      <c r="F166" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G166" s="29">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="H166" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>9.0033333333333339</v>
+      </c>
+      <c r="I166" s="1">
+        <v>535</v>
+      </c>
+      <c r="J166" s="1">
+        <v>550</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L166" s="25">
+        <v>75.03</v>
+      </c>
+      <c r="M166" s="25">
+        <v>60.02</v>
+      </c>
+      <c r="N166" s="23"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="32"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C167" s="1">
+        <v>11</v>
+      </c>
+      <c r="D167" s="31">
         <v>32</v>
       </c>
-      <c r="E166" s="31">
+      <c r="E167" s="31">
         <f>243-164</f>
         <v>79</v>
       </c>
-      <c r="F166" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G166" s="29">
+      <c r="F167" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="29">
         <v>106.73</v>
       </c>
-      <c r="H166" s="29">
+      <c r="H167" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
         <v>1.3510126582278481</v>
       </c>
-      <c r="I166" s="1">
+      <c r="I167" s="1">
         <v>30057</v>
       </c>
-      <c r="J166" s="1">
+      <c r="J167" s="1">
         <v>30300</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L166" s="25"/>
-      <c r="M166" s="25"/>
-      <c r="N166" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O166" s="9"/>
-      <c r="P166" s="32"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C167" s="1">
-        <v>11</v>
-      </c>
-      <c r="D167" s="31">
-        <v>32</v>
-      </c>
-      <c r="E167" s="31">
-        <v>164</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G167" s="29">
-        <v>128.1</v>
-      </c>
-      <c r="H167" s="29">
-        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.78109756097560967</v>
-      </c>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
       <c r="K167" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
-      <c r="N167" s="23"/>
-      <c r="O167" s="34">
-        <v>14.23</v>
-      </c>
-      <c r="P167" s="36">
-        <v>20.742999999999999</v>
-      </c>
+      <c r="N167" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O167" s="9"/>
+      <c r="P167" s="32"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B168" s="1">
         <v>2024</v>
       </c>
       <c r="C168" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D168" s="31">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E168" s="31">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G168" s="29">
-        <v>151.62</v>
+        <v>128.1</v>
       </c>
       <c r="H168" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.4233333333333338</v>
-      </c>
-      <c r="I168" s="1">
-        <v>550</v>
-      </c>
-      <c r="J168" s="1">
-        <v>568</v>
-      </c>
+        <v>0.78109756097560967</v>
+      </c>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
       <c r="K168" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L168" s="25">
-        <v>84.24</v>
-      </c>
-      <c r="M168" s="25">
-        <v>67.38</v>
-      </c>
+      <c r="L168" s="25"/>
+      <c r="M168" s="25"/>
       <c r="N168" s="23"/>
-      <c r="O168" s="9"/>
-      <c r="P168" s="32"/>
+      <c r="O168" s="34">
+        <v>14.23</v>
+      </c>
+      <c r="P168" s="36">
+        <v>20.742999999999999</v>
+      </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B169" s="1">
         <v>2024</v>
@@ -7572,41 +7588,43 @@
         <v>12</v>
       </c>
       <c r="D169" s="31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E169" s="31">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G169" s="29">
-        <v>216.37</v>
+        <v>151.62</v>
       </c>
       <c r="H169" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.087286432160804</v>
+        <v>8.4233333333333338</v>
       </c>
       <c r="I169" s="1">
-        <v>30300</v>
+        <v>550</v>
       </c>
       <c r="J169" s="1">
-        <v>30662</v>
+        <v>568</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L169" s="25"/>
-      <c r="M169" s="25"/>
-      <c r="N169" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="L169" s="25">
+        <v>84.24</v>
+      </c>
+      <c r="M169" s="25">
+        <v>67.38</v>
+      </c>
+      <c r="N169" s="23"/>
       <c r="O169" s="9"/>
       <c r="P169" s="32"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
         <v>2024</v>
@@ -7618,81 +7636,79 @@
         <v>29</v>
       </c>
       <c r="E170" s="31">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F170" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G170" s="29">
-        <v>122.72</v>
+        <v>216.37</v>
       </c>
       <c r="H170" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.75288343558282211</v>
-      </c>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+        <v>1.087286432160804</v>
+      </c>
+      <c r="I170" s="1">
+        <v>30300</v>
+      </c>
+      <c r="J170" s="1">
+        <v>30662</v>
+      </c>
       <c r="K170" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
-      <c r="N170" s="23"/>
-      <c r="O170" s="34">
-        <v>13.64</v>
-      </c>
-      <c r="P170" s="36">
-        <v>20.658000000000001</v>
-      </c>
+      <c r="N170" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O170" s="9"/>
+      <c r="P170" s="32"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B171" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C171" s="1">
-        <v>1</v>
-      </c>
-      <c r="D171" s="22">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="D171" s="31">
+        <v>29</v>
       </c>
       <c r="E171" s="31">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G171" s="29">
-        <v>155.31</v>
+        <v>122.72</v>
       </c>
       <c r="H171" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.1742105263157896</v>
-      </c>
-      <c r="I171" s="1">
-        <v>568</v>
-      </c>
-      <c r="J171" s="1">
-        <v>587</v>
-      </c>
+        <v>0.75288343558282211</v>
+      </c>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
       <c r="K171" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L171" s="25">
-        <v>86.29</v>
-      </c>
-      <c r="M171" s="25">
-        <v>69.02</v>
-      </c>
+      <c r="L171" s="25"/>
+      <c r="M171" s="25"/>
       <c r="N171" s="23"/>
-      <c r="O171" s="9"/>
-      <c r="P171" s="32"/>
+      <c r="O171" s="34">
+        <v>13.64</v>
+      </c>
+      <c r="P171" s="36">
+        <v>20.658000000000001</v>
+      </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B172" s="1">
         <v>2025</v>
@@ -7704,38 +7720,40 @@
         <v>31</v>
       </c>
       <c r="E172" s="31">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G172" s="29">
-        <v>159.63</v>
+        <v>155.31</v>
       </c>
       <c r="H172" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.92808139534883716</v>
+        <v>8.1742105263157896</v>
       </c>
       <c r="I172" s="1">
-        <v>30662</v>
+        <v>568</v>
       </c>
       <c r="J172" s="1">
-        <v>31008</v>
+        <v>587</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L172" s="25"/>
-      <c r="M172" s="25"/>
-      <c r="N172" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L172" s="25">
+        <v>86.29</v>
+      </c>
+      <c r="M172" s="25">
+        <v>69.02</v>
+      </c>
+      <c r="N172" s="23"/>
       <c r="O172" s="9"/>
       <c r="P172" s="32"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B173" s="1">
         <v>2025</v>
@@ -7747,81 +7765,79 @@
         <v>31</v>
       </c>
       <c r="E173" s="31">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F173" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G173" s="29">
-        <v>129.81</v>
+        <v>159.63</v>
       </c>
       <c r="H173" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.74603448275862072</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+        <v>0.92808139534883716</v>
+      </c>
+      <c r="I173" s="1">
+        <v>30662</v>
+      </c>
+      <c r="J173" s="1">
+        <v>31008</v>
+      </c>
       <c r="K173" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
-      <c r="N173" s="23"/>
-      <c r="O173" s="34">
-        <v>14.42</v>
-      </c>
-      <c r="P173" s="36">
-        <v>22.021999999999998</v>
-      </c>
+      <c r="N173" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O173" s="9"/>
+      <c r="P173" s="32"/>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B174" s="1">
         <v>2025</v>
       </c>
       <c r="C174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" s="22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E174" s="31">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G174" s="29">
-        <v>161.74</v>
+        <v>129.81</v>
       </c>
       <c r="H174" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.0869999999999997</v>
-      </c>
-      <c r="I174" s="1">
-        <v>587</v>
-      </c>
-      <c r="J174" s="1">
-        <v>607</v>
-      </c>
+        <v>0.74603448275862072</v>
+      </c>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
       <c r="K174" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L174" s="25">
-        <v>89.86</v>
-      </c>
-      <c r="M174" s="25">
-        <v>71.88</v>
-      </c>
+      <c r="L174" s="25"/>
+      <c r="M174" s="25"/>
       <c r="N174" s="23"/>
-      <c r="O174" s="9"/>
-      <c r="P174" s="32"/>
+      <c r="O174" s="34">
+        <v>14.42</v>
+      </c>
+      <c r="P174" s="36">
+        <v>22.021999999999998</v>
+      </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B175" s="1">
         <v>2025</v>
@@ -7830,41 +7846,43 @@
         <v>2</v>
       </c>
       <c r="D175" s="22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E175" s="31">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G175" s="29">
-        <v>235.31</v>
+        <v>161.74</v>
       </c>
       <c r="H175" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.0893981481481481</v>
+        <v>8.0869999999999997</v>
       </c>
       <c r="I175" s="1">
-        <v>31008</v>
+        <v>587</v>
       </c>
       <c r="J175" s="1">
-        <v>31505</v>
+        <v>607</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
-      <c r="N175" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L175" s="25">
+        <v>89.86</v>
+      </c>
+      <c r="M175" s="25">
+        <v>71.88</v>
+      </c>
+      <c r="N175" s="23"/>
       <c r="O175" s="9"/>
       <c r="P175" s="32"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B176" s="1">
         <v>2025</v>
@@ -7876,81 +7894,79 @@
         <v>29</v>
       </c>
       <c r="E176" s="31">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="F176" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G176" s="29">
-        <v>209.84</v>
+        <v>235.31</v>
       </c>
       <c r="H176" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.74676156583629894</v>
-      </c>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+        <v>1.0893981481481481</v>
+      </c>
+      <c r="I176" s="1">
+        <v>31008</v>
+      </c>
+      <c r="J176" s="1">
+        <v>31505</v>
+      </c>
       <c r="K176" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
-      <c r="N176" s="23"/>
-      <c r="O176" s="34">
-        <v>23.32</v>
-      </c>
-      <c r="P176" s="36">
-        <v>35.590000000000003</v>
-      </c>
+      <c r="N176" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O176" s="9"/>
+      <c r="P176" s="32"/>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B177" s="1">
         <v>2025</v>
       </c>
       <c r="C177" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177" s="22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E177" s="31">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G177" s="29">
-        <v>145.18</v>
+        <v>209.84</v>
       </c>
       <c r="H177" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.5400000000000009</v>
-      </c>
-      <c r="I177" s="1">
-        <v>607</v>
-      </c>
-      <c r="J177" s="1">
-        <v>624</v>
-      </c>
+        <v>0.74676156583629894</v>
+      </c>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
       <c r="K177" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L177" s="25">
-        <v>80.66</v>
-      </c>
-      <c r="M177" s="25">
-        <v>64.52</v>
-      </c>
+      <c r="L177" s="25"/>
+      <c r="M177" s="25"/>
       <c r="N177" s="23"/>
-      <c r="O177" s="9"/>
-      <c r="P177" s="32"/>
+      <c r="O177" s="34">
+        <v>23.32</v>
+      </c>
+      <c r="P177" s="36">
+        <v>35.590000000000003</v>
+      </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1">
         <v>2025</v>
@@ -7959,41 +7975,43 @@
         <v>3</v>
       </c>
       <c r="D178" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E178" s="31">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G178" s="29">
-        <v>176.59</v>
+        <v>145.18</v>
       </c>
       <c r="H178" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>3.5318000000000001</v>
+        <v>8.5400000000000009</v>
       </c>
       <c r="I178" s="1">
-        <v>31505</v>
+        <v>607</v>
       </c>
       <c r="J178" s="1">
-        <v>32002</v>
+        <v>624</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
-      <c r="N178" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L178" s="25">
+        <v>80.66</v>
+      </c>
+      <c r="M178" s="25">
+        <v>64.52</v>
+      </c>
+      <c r="N178" s="23"/>
       <c r="O178" s="9"/>
       <c r="P178" s="32"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B179" s="1">
         <v>2025</v>
@@ -8005,81 +8023,79 @@
         <v>31</v>
       </c>
       <c r="E179" s="31">
-        <v>447</v>
+        <v>50</v>
       </c>
       <c r="F179" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G179" s="29">
-        <v>321.72000000000003</v>
+        <v>176.59</v>
       </c>
       <c r="H179" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.71973154362416114</v>
-      </c>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+        <v>3.5318000000000001</v>
+      </c>
+      <c r="I179" s="1">
+        <v>31505</v>
+      </c>
+      <c r="J179" s="1">
+        <v>32002</v>
+      </c>
       <c r="K179" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L179" s="25"/>
       <c r="M179" s="25"/>
-      <c r="N179" s="23"/>
-      <c r="O179" s="34">
-        <v>35.75</v>
-      </c>
-      <c r="P179" s="36">
-        <v>56.59</v>
-      </c>
+      <c r="N179" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O179" s="9"/>
+      <c r="P179" s="32"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B180" s="1">
         <v>2025</v>
       </c>
       <c r="C180" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180" s="22">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E180" s="31">
-        <v>16</v>
+        <v>447</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G180" s="29">
-        <v>136</v>
+        <v>321.72000000000003</v>
       </c>
       <c r="H180" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.5</v>
-      </c>
-      <c r="I180" s="1">
-        <v>624</v>
-      </c>
-      <c r="J180" s="1">
-        <v>640</v>
-      </c>
+        <v>0.71973154362416114</v>
+      </c>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
       <c r="K180" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L180" s="25">
-        <v>75.56</v>
-      </c>
-      <c r="M180" s="25">
-        <v>60.44</v>
-      </c>
+      <c r="L180" s="25"/>
+      <c r="M180" s="25"/>
       <c r="N180" s="23"/>
-      <c r="O180" s="9"/>
-      <c r="P180" s="32"/>
+      <c r="O180" s="34">
+        <v>35.75</v>
+      </c>
+      <c r="P180" s="36">
+        <v>56.59</v>
+      </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B181" s="1">
         <v>2025</v>
@@ -8088,41 +8104,43 @@
         <v>4</v>
       </c>
       <c r="D181" s="22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E181" s="31">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G181" s="29">
-        <v>94.49</v>
+        <v>136</v>
       </c>
       <c r="H181" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.8897999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I181" s="1">
-        <v>32002</v>
+        <v>624</v>
       </c>
       <c r="J181" s="1">
-        <v>32365</v>
+        <v>640</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L181" s="25"/>
-      <c r="M181" s="25"/>
-      <c r="N181" s="23" t="s">
-        <v>17</v>
-      </c>
+      <c r="L181" s="25">
+        <v>75.56</v>
+      </c>
+      <c r="M181" s="25">
+        <v>60.44</v>
+      </c>
+      <c r="N181" s="23"/>
       <c r="O181" s="9"/>
       <c r="P181" s="32"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B182" s="1">
         <v>2025</v>
@@ -8134,81 +8152,79 @@
         <v>30</v>
       </c>
       <c r="E182" s="31">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="F182" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G182" s="29">
-        <v>234.79</v>
+        <v>94.49</v>
       </c>
       <c r="H182" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.75012779552715647</v>
-      </c>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+        <v>1.8897999999999999</v>
+      </c>
+      <c r="I182" s="1">
+        <v>32002</v>
+      </c>
+      <c r="J182" s="1">
+        <v>32365</v>
+      </c>
       <c r="K182" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
-      <c r="N182" s="23"/>
-      <c r="O182" s="34">
-        <v>26.09</v>
-      </c>
-      <c r="P182" s="36">
-        <v>39.625999999999998</v>
-      </c>
+      <c r="N182" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O182" s="9"/>
+      <c r="P182" s="32"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B183" s="1">
         <v>2025</v>
       </c>
       <c r="C183" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183" s="22">
         <v>30</v>
       </c>
       <c r="E183" s="31">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="F183" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G183" s="29">
-        <v>134.11000000000001</v>
+        <v>234.79</v>
       </c>
       <c r="H183" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>9.5792857142857155</v>
-      </c>
-      <c r="I183" s="1">
-        <v>640</v>
-      </c>
-      <c r="J183" s="1">
-        <v>654</v>
-      </c>
+        <v>0.75012779552715647</v>
+      </c>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
       <c r="K183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L183" s="25">
-        <v>74.510000000000005</v>
-      </c>
-      <c r="M183" s="25">
-        <v>59.6</v>
-      </c>
+      <c r="L183" s="25"/>
+      <c r="M183" s="25"/>
       <c r="N183" s="23"/>
-      <c r="O183" s="9"/>
-      <c r="P183" s="32"/>
+      <c r="O183" s="34">
+        <v>26.09</v>
+      </c>
+      <c r="P183" s="36">
+        <v>39.625999999999998</v>
+      </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B184" s="1">
         <v>2025</v>
@@ -8217,41 +8233,43 @@
         <v>5</v>
       </c>
       <c r="D184" s="22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E184" s="31">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F184" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G184" s="29">
-        <v>83.4</v>
+        <v>134.11000000000001</v>
       </c>
       <c r="H184" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.6680000000000001</v>
+        <v>9.5792857142857155</v>
       </c>
       <c r="I184" s="1">
-        <v>32365</v>
+        <v>640</v>
       </c>
       <c r="J184" s="1">
-        <v>32598</v>
+        <v>654</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L184" s="25"/>
-      <c r="M184" s="25"/>
-      <c r="N184" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="L184" s="25">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="M184" s="25">
+        <v>59.6</v>
+      </c>
+      <c r="N184" s="23"/>
       <c r="O184" s="9"/>
       <c r="P184" s="32"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B185" s="1">
         <v>2025</v>
@@ -8263,81 +8281,79 @@
         <v>29</v>
       </c>
       <c r="E185" s="31">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="F185" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G185" s="29">
-        <v>140.24</v>
+        <v>83.4</v>
       </c>
       <c r="H185" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.76633879781420766</v>
-      </c>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+        <v>1.6680000000000001</v>
+      </c>
+      <c r="I185" s="1">
+        <v>32365</v>
+      </c>
+      <c r="J185" s="1">
+        <v>32598</v>
+      </c>
       <c r="K185" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="34">
-        <v>15.58</v>
-      </c>
-      <c r="P185" s="36">
-        <v>23.167999999999999</v>
-      </c>
+      <c r="N185" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O185" s="9"/>
+      <c r="P185" s="32"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B186" s="1">
         <v>2025</v>
       </c>
       <c r="C186" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D186" s="22">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E186" s="31">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G186" s="29">
-        <v>153.41999999999999</v>
+        <v>140.24</v>
       </c>
       <c r="H186" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>9.02470588235294</v>
-      </c>
-      <c r="I186" s="1">
-        <v>654</v>
-      </c>
-      <c r="J186" s="1">
-        <v>671</v>
-      </c>
+        <v>0.76633879781420766</v>
+      </c>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
       <c r="K186" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L186" s="25">
-        <v>85.24</v>
-      </c>
-      <c r="M186" s="25">
-        <v>68.180000000000007</v>
-      </c>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
       <c r="N186" s="23"/>
-      <c r="O186" s="9"/>
-      <c r="P186" s="32"/>
+      <c r="O186" s="34">
+        <v>15.58</v>
+      </c>
+      <c r="P186" s="36">
+        <v>23.167999999999999</v>
+      </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B187" s="1">
         <v>2025</v>
@@ -8346,41 +8362,43 @@
         <v>6</v>
       </c>
       <c r="D187" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E187" s="31">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G187" s="29">
-        <v>80.22</v>
+        <v>153.41999999999999</v>
       </c>
       <c r="H187" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.6044</v>
+        <v>9.02470588235294</v>
       </c>
       <c r="I187" s="1">
-        <v>32598</v>
+        <v>654</v>
       </c>
       <c r="J187" s="1">
-        <v>32811</v>
+        <v>671</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
-      <c r="N187" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="L187" s="25">
+        <v>85.24</v>
+      </c>
+      <c r="M187" s="25">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="N187" s="23"/>
       <c r="O187" s="9"/>
       <c r="P187" s="32"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B188" s="1">
         <v>2025</v>
@@ -8392,81 +8410,79 @@
         <v>32</v>
       </c>
       <c r="E188" s="31">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="F188" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G188" s="29">
-        <v>128.53</v>
+        <v>80.22</v>
       </c>
       <c r="H188" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.78852760736196315</v>
-      </c>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
+        <v>1.6044</v>
+      </c>
+      <c r="I188" s="1">
+        <v>32598</v>
+      </c>
+      <c r="J188" s="1">
+        <v>32811</v>
+      </c>
       <c r="K188" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="34">
-        <v>14.28</v>
-      </c>
-      <c r="P188" s="36">
-        <v>20.635999999999999</v>
-      </c>
+      <c r="N188" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O188" s="9"/>
+      <c r="P188" s="32"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B189" s="1">
         <v>2025</v>
       </c>
       <c r="C189" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D189" s="22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E189" s="31">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="F189" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G189" s="29">
-        <v>132.31</v>
+        <v>128.53</v>
       </c>
       <c r="H189" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.820666666666666</v>
-      </c>
-      <c r="I189" s="1">
-        <v>671</v>
-      </c>
-      <c r="J189" s="1">
-        <v>686</v>
-      </c>
+        <v>0.78852760736196315</v>
+      </c>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
       <c r="K189" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L189" s="25">
-        <v>73.510000000000005</v>
-      </c>
-      <c r="M189" s="25">
-        <v>58.8</v>
-      </c>
+      <c r="L189" s="25"/>
+      <c r="M189" s="25"/>
       <c r="N189" s="23"/>
-      <c r="O189" s="9"/>
-      <c r="P189" s="32"/>
+      <c r="O189" s="34">
+        <v>14.28</v>
+      </c>
+      <c r="P189" s="36">
+        <v>20.635999999999999</v>
+      </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B190" s="1">
         <v>2025</v>
@@ -8475,41 +8491,43 @@
         <v>7</v>
       </c>
       <c r="D190" s="22">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E190" s="31">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F190" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G190" s="29">
-        <v>74.19</v>
+        <v>132.31</v>
       </c>
       <c r="H190" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.4838</v>
+        <v>8.820666666666666</v>
       </c>
       <c r="I190" s="1">
-        <v>32811</v>
+        <v>671</v>
       </c>
       <c r="J190" s="1">
-        <v>32994</v>
+        <v>686</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L190" s="25"/>
-      <c r="M190" s="25"/>
-      <c r="N190" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="L190" s="25">
+        <v>73.510000000000005</v>
+      </c>
+      <c r="M190" s="25">
+        <v>58.8</v>
+      </c>
+      <c r="N190" s="23"/>
       <c r="O190" s="9"/>
       <c r="P190" s="32"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B191" s="1">
         <v>2025</v>
@@ -8521,81 +8539,79 @@
         <v>30</v>
       </c>
       <c r="E191" s="31">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="F191" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G191" s="29">
-        <v>105.8</v>
+        <v>74.19</v>
       </c>
       <c r="H191" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.79548872180451125</v>
-      </c>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
+        <v>1.4838</v>
+      </c>
+      <c r="I191" s="1">
+        <v>32811</v>
+      </c>
+      <c r="J191" s="1">
+        <v>32994</v>
+      </c>
       <c r="K191" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L191" s="25"/>
       <c r="M191" s="25"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="34">
-        <v>11.76</v>
-      </c>
-      <c r="P191" s="36">
-        <v>16.838000000000001</v>
-      </c>
+      <c r="N191" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O191" s="9"/>
+      <c r="P191" s="32"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B192" s="1">
         <v>2025</v>
       </c>
       <c r="C192" s="9">
-        <v>8</v>
-      </c>
-      <c r="D192" s="9">
+        <v>7</v>
+      </c>
+      <c r="D192" s="39">
         <v>30</v>
       </c>
-      <c r="E192" s="9">
-        <v>12</v>
+      <c r="E192" s="40">
+        <v>133</v>
       </c>
       <c r="F192" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G192" s="33">
-        <v>133.02000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="G192" s="41">
+        <v>105.8</v>
       </c>
       <c r="H192" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>11.085000000000001</v>
-      </c>
-      <c r="I192" s="9">
-        <v>686</v>
-      </c>
-      <c r="J192" s="9">
-        <v>698</v>
-      </c>
+        <v>0.79548872180451125</v>
+      </c>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
       <c r="K192" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L192" s="26">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="M192" s="26">
-        <v>59.12</v>
-      </c>
+      <c r="L192" s="42"/>
+      <c r="M192" s="42"/>
       <c r="N192" s="32"/>
-      <c r="O192" s="9"/>
-      <c r="P192" s="32"/>
+      <c r="O192" s="34">
+        <v>11.76</v>
+      </c>
+      <c r="P192" s="36">
+        <v>16.838000000000001</v>
+      </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B193" s="1">
         <v>2025</v>
@@ -8604,41 +8620,43 @@
         <v>8</v>
       </c>
       <c r="D193" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E193" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F193" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G193" s="33">
-        <v>69.86</v>
+        <v>133.02000000000001</v>
       </c>
       <c r="H193" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.3972</v>
+        <v>11.085000000000001</v>
       </c>
       <c r="I193" s="9">
-        <v>32994</v>
+        <v>686</v>
       </c>
       <c r="J193" s="9">
-        <v>33195</v>
+        <v>698</v>
       </c>
       <c r="K193" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L193" s="9"/>
-      <c r="M193" s="9"/>
-      <c r="N193" s="32" t="s">
-        <v>12</v>
-      </c>
+      <c r="L193" s="26">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="M193" s="26">
+        <v>59.12</v>
+      </c>
+      <c r="N193" s="32"/>
       <c r="O193" s="9"/>
       <c r="P193" s="32"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B194" s="1">
         <v>2025</v>
@@ -8650,81 +8668,79 @@
         <v>33</v>
       </c>
       <c r="E194" s="9">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="F194" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G194" s="33">
-        <v>135.6</v>
+        <v>69.86</v>
       </c>
       <c r="H194" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.89801324503311253</v>
-      </c>
-      <c r="I194" s="9"/>
-      <c r="J194" s="9"/>
+        <v>1.3972</v>
+      </c>
+      <c r="I194" s="9">
+        <v>32994</v>
+      </c>
+      <c r="J194" s="9">
+        <v>33195</v>
+      </c>
       <c r="K194" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
-      <c r="N194" s="32"/>
-      <c r="O194" s="34">
-        <v>15.07</v>
-      </c>
-      <c r="P194" s="36">
-        <v>19.117000000000001</v>
-      </c>
+      <c r="N194" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O194" s="9"/>
+      <c r="P194" s="32"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B195" s="1">
         <v>2025</v>
       </c>
       <c r="C195" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D195" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E195" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="F195" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G195" s="33">
-        <v>154.28</v>
+        <v>135.6</v>
       </c>
       <c r="H195" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>9.6425000000000001</v>
-      </c>
-      <c r="I195" s="9">
-        <v>686</v>
-      </c>
-      <c r="J195" s="9">
-        <v>714</v>
-      </c>
+        <v>0.89801324503311253</v>
+      </c>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
       <c r="K195" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L195" s="26">
-        <v>85.71</v>
-      </c>
-      <c r="M195" s="26">
-        <v>68.569999999999993</v>
-      </c>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
       <c r="N195" s="32"/>
-      <c r="O195" s="9"/>
-      <c r="P195" s="32"/>
+      <c r="O195" s="34">
+        <v>15.07</v>
+      </c>
+      <c r="P195" s="36">
+        <v>19.117000000000001</v>
+      </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B196" s="1">
         <v>2025</v>
@@ -8733,41 +8749,43 @@
         <v>9</v>
       </c>
       <c r="D196" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E196" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F196" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G196" s="33">
-        <v>88.08</v>
+        <v>154.28</v>
       </c>
       <c r="H196" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.7616000000000001</v>
+        <v>9.6425000000000001</v>
       </c>
       <c r="I196" s="9">
-        <v>33195</v>
+        <v>686</v>
       </c>
       <c r="J196" s="9">
-        <v>33387</v>
+        <v>714</v>
       </c>
       <c r="K196" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L196" s="9"/>
-      <c r="M196" s="9"/>
-      <c r="N196" s="32" t="s">
-        <v>12</v>
-      </c>
+      <c r="L196" s="26">
+        <v>85.71</v>
+      </c>
+      <c r="M196" s="26">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="N196" s="32"/>
       <c r="O196" s="9"/>
       <c r="P196" s="32"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B197" s="1">
         <v>2025</v>
@@ -8779,81 +8797,79 @@
         <v>29</v>
       </c>
       <c r="E197" s="9">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="F197" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G197" s="33">
-        <v>135.04</v>
+        <v>88.08</v>
       </c>
       <c r="H197" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.95098591549295775</v>
-      </c>
-      <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
+        <v>1.7616000000000001</v>
+      </c>
+      <c r="I197" s="9">
+        <v>33195</v>
+      </c>
+      <c r="J197" s="9">
+        <v>33387</v>
+      </c>
       <c r="K197" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L197" s="9"/>
       <c r="M197" s="9"/>
-      <c r="N197" s="32"/>
-      <c r="O197" s="34">
-        <v>15</v>
-      </c>
-      <c r="P197" s="36">
-        <v>17.977</v>
-      </c>
+      <c r="N197" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O197" s="9"/>
+      <c r="P197" s="32"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B198" s="1">
         <v>2025</v>
       </c>
       <c r="C198" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198" s="9">
         <v>29</v>
       </c>
       <c r="E198" s="9">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F198" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G198" s="33">
-        <v>157.22999999999999</v>
+        <v>135.04</v>
       </c>
       <c r="H198" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.2752631578947362</v>
-      </c>
-      <c r="I198" s="9">
-        <v>714</v>
-      </c>
-      <c r="J198" s="9">
-        <v>733</v>
-      </c>
+        <v>0.95098591549295775</v>
+      </c>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
       <c r="K198" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L198" s="26">
-        <v>87.35</v>
-      </c>
-      <c r="M198" s="26">
-        <v>69.88</v>
-      </c>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
       <c r="N198" s="32"/>
-      <c r="O198" s="9"/>
-      <c r="P198" s="32"/>
+      <c r="O198" s="34">
+        <v>15</v>
+      </c>
+      <c r="P198" s="36">
+        <v>17.977</v>
+      </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B199" s="1">
         <v>2025</v>
@@ -8862,41 +8878,43 @@
         <v>10</v>
       </c>
       <c r="D199" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E199" s="9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F199" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G199" s="33">
-        <v>97.19</v>
+        <v>157.22999999999999</v>
       </c>
       <c r="H199" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.9438</v>
+        <v>8.2752631578947362</v>
       </c>
       <c r="I199" s="9">
-        <v>33387</v>
+        <v>714</v>
       </c>
       <c r="J199" s="9">
-        <v>33592</v>
+        <v>733</v>
       </c>
       <c r="K199" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
-      <c r="N199" s="32" t="s">
-        <v>12</v>
-      </c>
+      <c r="L199" s="26">
+        <v>87.35</v>
+      </c>
+      <c r="M199" s="26">
+        <v>69.88</v>
+      </c>
+      <c r="N199" s="32"/>
       <c r="O199" s="9"/>
       <c r="P199" s="32"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1">
         <v>2025</v>
@@ -8908,81 +8926,79 @@
         <v>30</v>
       </c>
       <c r="E200" s="9">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="F200" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G200" s="33">
-        <v>166.3</v>
+        <v>97.19</v>
       </c>
       <c r="H200" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.791904761904762</v>
-      </c>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
+        <v>1.9438</v>
+      </c>
+      <c r="I200" s="9">
+        <v>33387</v>
+      </c>
+      <c r="J200" s="9">
+        <v>33592</v>
+      </c>
       <c r="K200" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L200" s="9"/>
       <c r="M200" s="9"/>
-      <c r="N200" s="32"/>
-      <c r="O200" s="34">
-        <v>18.48</v>
-      </c>
-      <c r="P200" s="37">
-        <v>26.632999999999999</v>
-      </c>
+      <c r="N200" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O200" s="9"/>
+      <c r="P200" s="32"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B201" s="1">
         <v>2025</v>
       </c>
       <c r="C201" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D201" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E201" s="9">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="F201" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G201" s="33">
-        <v>141.75</v>
+        <v>166.3</v>
       </c>
       <c r="H201" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="I201" s="9">
-        <v>733</v>
-      </c>
-      <c r="J201" s="9">
-        <v>748</v>
-      </c>
+        <v>0.791904761904762</v>
+      </c>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
       <c r="K201" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L201" s="26">
-        <v>78.75</v>
-      </c>
-      <c r="M201" s="26">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L201" s="9"/>
+      <c r="M201" s="9"/>
       <c r="N201" s="32"/>
-      <c r="O201" s="9"/>
-      <c r="P201" s="32"/>
+      <c r="O201" s="34">
+        <v>18.48</v>
+      </c>
+      <c r="P201" s="37">
+        <v>26.632999999999999</v>
+      </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B202" s="1">
         <v>2025</v>
@@ -8991,41 +9007,43 @@
         <v>11</v>
       </c>
       <c r="D202" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E202" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F202" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G202" s="33">
-        <v>95.72</v>
+        <v>141.75</v>
       </c>
       <c r="H202" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.9143999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="I202" s="9">
-        <v>33592</v>
+        <v>733</v>
       </c>
       <c r="J202" s="9">
-        <v>33853</v>
+        <v>748</v>
       </c>
       <c r="K202" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L202" s="9"/>
-      <c r="M202" s="9"/>
-      <c r="N202" s="32" t="s">
-        <v>12</v>
-      </c>
+      <c r="L202" s="26">
+        <v>78.75</v>
+      </c>
+      <c r="M202" s="26">
+        <v>63</v>
+      </c>
+      <c r="N202" s="32"/>
       <c r="O202" s="9"/>
       <c r="P202" s="32"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B203" s="1">
         <v>2025</v>
@@ -9037,81 +9055,79 @@
         <v>32</v>
       </c>
       <c r="E203" s="9">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="F203" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G203" s="33">
-        <v>192.87</v>
+        <v>95.72</v>
       </c>
       <c r="H203" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0.91407582938388632</v>
-      </c>
-      <c r="I203" s="9"/>
-      <c r="J203" s="9"/>
+        <v>1.9143999999999999</v>
+      </c>
+      <c r="I203" s="9">
+        <v>33592</v>
+      </c>
+      <c r="J203" s="9">
+        <v>33853</v>
+      </c>
       <c r="K203" s="9" t="s">
         <v>7</v>
       </c>
       <c r="L203" s="9"/>
       <c r="M203" s="9"/>
-      <c r="N203" s="32"/>
-      <c r="O203" s="34">
-        <v>21.43</v>
-      </c>
-      <c r="P203" s="36">
-        <v>26.713000000000001</v>
-      </c>
+      <c r="N203" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O203" s="9"/>
+      <c r="P203" s="32"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B204" s="1">
         <v>2025</v>
       </c>
       <c r="C204" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D204" s="9">
         <v>32</v>
       </c>
       <c r="E204" s="9">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G204" s="33">
-        <v>165.89</v>
+        <v>192.87</v>
       </c>
       <c r="H204" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>8.7310526315789474</v>
-      </c>
-      <c r="I204" s="9">
-        <v>748</v>
-      </c>
-      <c r="J204" s="9">
-        <v>767</v>
-      </c>
+        <v>0.91407582938388632</v>
+      </c>
+      <c r="I204" s="9"/>
+      <c r="J204" s="9"/>
       <c r="K204" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L204" s="26">
-        <v>92.16</v>
-      </c>
-      <c r="M204" s="26">
-        <v>73.73</v>
-      </c>
+      <c r="L204" s="9"/>
+      <c r="M204" s="9"/>
       <c r="N204" s="32"/>
-      <c r="O204" s="9"/>
-      <c r="P204" s="32"/>
+      <c r="O204" s="34">
+        <v>21.43</v>
+      </c>
+      <c r="P204" s="36">
+        <v>26.713000000000001</v>
+      </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B205" s="1">
         <v>2025</v>
@@ -9120,41 +9136,43 @@
         <v>12</v>
       </c>
       <c r="D205" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E205" s="9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F205" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G205" s="33">
-        <v>91.52</v>
+        <v>165.89</v>
       </c>
       <c r="H205" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>1.8304</v>
+        <v>8.7310526315789474</v>
       </c>
       <c r="I205" s="9">
-        <v>33853</v>
+        <v>748</v>
       </c>
       <c r="J205" s="9">
-        <v>34121</v>
+        <v>767</v>
       </c>
       <c r="K205" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L205" s="9"/>
-      <c r="M205" s="9"/>
-      <c r="N205" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="L205" s="26">
+        <v>92.16</v>
+      </c>
+      <c r="M205" s="26">
+        <v>73.73</v>
+      </c>
+      <c r="N205" s="32"/>
       <c r="O205" s="9"/>
       <c r="P205" s="32"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B206" s="1">
         <v>2025</v>
@@ -9166,94 +9184,125 @@
         <v>28</v>
       </c>
       <c r="E206" s="9">
-        <v>268</v>
+        <v>50</v>
       </c>
       <c r="F206" s="25" t="s">
         <v>3</v>
       </c>
       <c r="G206" s="33">
-        <v>0</v>
+        <v>91.52</v>
       </c>
       <c r="H206" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>0</v>
-      </c>
-      <c r="I206" s="9"/>
-      <c r="J206" s="9"/>
-      <c r="K206" s="9"/>
+        <v>1.8304</v>
+      </c>
+      <c r="I206" s="9">
+        <v>33853</v>
+      </c>
+      <c r="J206" s="9">
+        <v>34121</v>
+      </c>
+      <c r="K206" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="L206" s="9"/>
       <c r="M206" s="9"/>
-      <c r="N206" s="32"/>
-      <c r="O206" s="34"/>
-      <c r="P206" s="36"/>
+      <c r="N206" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O206" s="9"/>
+      <c r="P206" s="32"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B207" s="1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C207" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D207" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207" s="9">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="F207" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G207" s="33">
-        <v>119.33</v>
+        <v>0</v>
       </c>
       <c r="H207" s="29">
         <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
-        <v>7.0194117647058825</v>
-      </c>
-      <c r="I207" s="9">
-        <v>908</v>
-      </c>
-      <c r="J207" s="9">
-        <v>925</v>
-      </c>
-      <c r="K207" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L207" s="26">
-        <v>66.349999999999994</v>
-      </c>
-      <c r="M207" s="26">
-        <v>52.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="9"/>
+      <c r="M207" s="9"/>
       <c r="N207" s="32"/>
-      <c r="O207" s="9"/>
-      <c r="P207" s="32"/>
+      <c r="O207" s="34"/>
+      <c r="P207" s="36"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A208" s="23"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="25"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="29"/>
-      <c r="I208" s="9"/>
-      <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
-      <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
+      <c r="A208" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2026</v>
+      </c>
+      <c r="C208" s="9">
+        <v>1</v>
+      </c>
+      <c r="D208" s="9">
+        <v>32</v>
+      </c>
+      <c r="E208" s="9">
+        <v>21</v>
+      </c>
+      <c r="F208" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208" s="33">
+        <v>173.63</v>
+      </c>
+      <c r="H208" s="29">
+        <f>tServicos[[#This Row],[valor]]/tServicos[[#This Row],[volFaturado]]</f>
+        <v>8.2680952380952384</v>
+      </c>
+      <c r="I208" s="9">
+        <v>767</v>
+      </c>
+      <c r="J208" s="9">
+        <v>788</v>
+      </c>
+      <c r="K208" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L208" s="9">
+        <v>96.46</v>
+      </c>
+      <c r="M208" s="9">
+        <v>77.17</v>
+      </c>
       <c r="N208" s="32"/>
       <c r="O208" s="9"/>
       <c r="P208" s="32"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="23"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="9"/>
+      <c r="A209" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2026</v>
+      </c>
+      <c r="C209" s="9">
+        <v>1</v>
+      </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="25"/>
